--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/ez255_cornell_edu/Documents/Documents/Eric/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{9A91684B-D2CF-4025-A151-23D22FDE9E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C863A7-3D7F-4D73-A31C-A35BAD71661F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4639EE-0081-4248-A695-386A53C5A461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="377">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -987,17 +987,6 @@
   </si>
   <si>
     <t>better solution w dp by creating array from 0 to target, adding all possible combinations for sums for each value from 0 to target</t>
-  </si>
-  <si>
-    <t>def combinationSum(self, nums: List[int], target: int) -&gt; List[List[int]]:
-        dp = [[] for _ in range(target + 1)]
-        for n in nums:
-            if n &lt;= target:
-                dp[n].append([n])
-            for i in range(n + 1, target + 1):
-                for comb in dp[i - n]:
-                    dp[i].append(comb + [n])
-        return dp[target]</t>
   </si>
   <si>
     <t>all permutations of list of unique nums</t>
@@ -1028,25 +1017,6 @@
     <t>same concept as subsets ii, sort array and when recursing, we add element to curr, recurse on i + 1, pop and recurse on next new number (skipping duplicates), smart way of doing with for loop and breaking when currsum gets too high</t>
   </si>
   <si>
-    <t>def combinationSum2(self, candidates: List[int], target: int) -&gt; List[List[int]]:
-    candidates.sort()
-    ret = []
-    def dfs(start: int, target: int, path: List[int]):
-        if target == 0:
-            ret.append(path[:])
-            return
-        for i in range(start, len(candidates)):
-            if i &gt; start and candidates[i] == candidates[i-1]:
-                continue
-            if candidates[i] &gt; target:
-                break
-            path.append(candidates[i])
-            dfs(i + 1, target - candidates[i], path)
-            path.pop()
-    dfs(0, target, [])        
-    return ret</t>
-  </si>
-  <si>
     <t>all combinations of nums in arr that get to target sum w/ repeats, each num only allowed to use once</t>
   </si>
   <si>
@@ -1180,30 +1150,6 @@
   </si>
   <si>
     <t>can just array sort with custom distance key and return slice</t>
-  </si>
-  <si>
-    <t>def findKthLargest(self, nums: List[int], k: int) -&gt; int:
-    k = len(nums) - k
-    l, r = 0, len(nums) - 1
-    while l &lt; r:
-        t = self.partition(nums, l, r)
-        print(nums, t)
-        if t == k:
-            break
-        elif t &lt; k:
-            l = t + 1
-        else:
-            r = t - 1
-    return nums[k]
-def partition(self, nums, l, r):
-    pivot, fill = nums[l], l + 1
-    for i in range(l + 1, r + 1):
-        if nums[i] &lt; pivot:
-            nums[fill], nums[i] = nums[i], nums[fill]
-            fill += 1
-            print(nums, fill)
-    nums[fill-1], nums[l] = nums[l], nums[fill-1]
-    return fill - 1</t>
   </si>
   <si>
     <t>repeatedly partition to get to the Kth is most efficient technically, sorting actually works out better though
@@ -1219,7 +1165,13 @@
     <t>Cpp</t>
   </si>
   <si>
-    <t>Code (maybe)</t>
+    <t>given list of tasks with certain tasks needed to be done multiple times and a minimum wait time between doing the same task multiple times, determine time to finish all tasks</t>
+  </si>
+  <si>
+    <t>basically you sort by number of occurrences for each task, you know you need the (max repeats - 1) * wait time added at most, so then you just loop through and subtract from here based on how many other tasks you can use instead of stalling, then you add this to length of tasks for total time</t>
+  </si>
+  <si>
+    <t>maintain min heap for larger half and max heap for smaller half, every time you add based on which heap element belongs to, then balance sizes of heaps if they are more than 2 apart, median just checks if one heap is longer it returns from that heap otherwise it returns average of the 2</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1377,9 +1329,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1430,10 +1379,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2285,10 +2230,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ADB572-3F2B-41BB-A303-53CCEC27F096}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H967"/>
+  <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="123" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,17 +2249,17 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2333,14 +2278,11 @@
       <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2358,7 +2300,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2373,7 +2315,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2388,7 +2330,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2405,7 +2347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2420,7 +2362,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2437,7 +2379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2452,7 +2394,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2469,7 +2411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2487,7 +2429,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2504,7 +2446,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2519,7 +2461,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2534,7 +2476,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2549,7 +2491,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -3359,9 +3301,6 @@
       <c r="F66" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
@@ -3371,10 +3310,10 @@
         <v>119</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="F67" s="13"/>
     </row>
@@ -3386,10 +3325,10 @@
         <v>119</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="F68" s="3"/>
     </row>
@@ -3401,15 +3340,12 @@
         <v>119</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="6" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
@@ -3419,10 +3355,10 @@
         <v>119</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F70" s="3"/>
     </row>
@@ -3434,10 +3370,10 @@
         <v>119</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F71" s="3"/>
     </row>
@@ -3449,10 +3385,10 @@
         <v>119</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="F72" s="3"/>
     </row>
@@ -3464,19 +3400,19 @@
         <v>142</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>112</v>
@@ -3485,28 +3421,28 @@
         <v>45</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>119</v>
@@ -3515,15 +3451,15 @@
         <v>45</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>119</v>
@@ -3532,58 +3468,63 @@
         <v>45</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>119</v>
@@ -3594,7 +3535,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>119</v>
@@ -3605,7 +3546,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>119</v>
@@ -3616,7 +3557,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>119</v>
@@ -3627,7 +3568,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>119</v>
@@ -3638,7 +3579,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>119</v>
@@ -3649,7 +3590,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>119</v>
@@ -3660,7 +3601,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>119</v>
@@ -3671,7 +3612,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>119</v>
@@ -3682,7 +3623,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>119</v>
@@ -3693,7 +3634,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>119</v>
@@ -3704,7 +3645,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>119</v>
@@ -3715,7 +3656,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>142</v>
@@ -3726,10 +3667,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>112</v>
@@ -3740,7 +3681,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>112</v>
@@ -3751,7 +3692,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>119</v>
@@ -3762,7 +3703,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>119</v>
@@ -3773,7 +3714,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>119</v>
@@ -3784,7 +3725,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
@@ -3795,7 +3736,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>119</v>
@@ -3806,7 +3747,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>119</v>
@@ -3817,7 +3758,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>119</v>
@@ -3828,7 +3769,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>119</v>
@@ -3839,7 +3780,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>119</v>
@@ -3850,7 +3791,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>119</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4639EE-0081-4248-A695-386A53C5A461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696CB6E-4235-4E67-9FA5-E29A36FDE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="380">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1172,6 +1172,15 @@
   </si>
   <si>
     <t>maintain min heap for larger half and max heap for smaller half, every time you add based on which heap element belongs to, then balance sizes of heaps if they are more than 2 apart, median just checks if one heap is longer it returns from that heap otherwise it returns average of the 2</t>
+  </si>
+  <si>
+    <t>count number of connected islands in rectangle grid</t>
+  </si>
+  <si>
+    <t>just loop through each spot and run dfs if not visited yet and it's a 1, dfs goes to all connected bits (all 4 directions) and marks all connected as visited</t>
+  </si>
+  <si>
+    <t>instead of visited set, you can just change 1s to 0s</t>
   </si>
 </sst>
 </file>
@@ -1684,15 +1693,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1849,12 +1858,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1882,7 +1891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2022,17 +2031,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2088,7 +2097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2209,7 +2218,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2221,7 +2230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,24 +2241,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="123" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2259,7 +2268,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2324,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2330,7 +2339,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2371,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2429,7 +2438,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2461,7 +2470,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2476,7 +2485,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2491,7 +2500,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2509,7 +2518,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2541,7 +2550,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2556,7 +2565,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2571,7 +2580,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2623,7 +2632,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2638,7 +2647,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2653,7 +2662,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2668,7 +2677,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2683,7 +2692,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2782,7 +2791,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2797,7 +2806,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2812,7 +2821,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2830,7 +2839,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2892,7 +2901,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2907,7 +2916,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2922,7 +2931,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2937,7 +2946,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -2952,7 +2961,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3000,7 +3009,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3030,7 +3039,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3060,7 +3069,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3090,7 +3099,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3105,7 +3114,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3120,7 +3129,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3167,7 +3176,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3182,7 +3191,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3215,7 +3224,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3235,7 +3244,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3250,7 +3259,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3285,7 +3294,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3317,7 +3326,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3332,7 +3341,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3347,7 +3356,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3362,7 +3371,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3377,7 +3386,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3392,7 +3401,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3407,7 +3416,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3425,7 +3434,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3440,7 +3449,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3472,7 +3481,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3487,7 +3496,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3504,7 +3513,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3519,7 +3528,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3529,11 +3538,17 @@
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3544,7 +3559,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3555,7 +3570,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3566,7 +3581,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3577,7 +3592,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3588,7 +3603,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3599,7 +3614,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3610,7 +3625,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3621,7 +3636,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3632,7 +3647,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3643,7 +3658,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3654,7 +3669,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3665,7 +3680,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3679,7 +3694,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3690,7 +3705,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3701,7 +3716,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3712,7 +3727,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3723,7 +3738,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3734,7 +3749,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3745,7 +3760,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3756,7 +3771,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3767,7 +3782,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3778,7 +3793,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3789,7 +3804,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3800,4312 +3815,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696CB6E-4235-4E67-9FA5-E29A36FDE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F0A6-7B38-457E-8B3A-6AA6A0CAC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="382">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1181,6 +1181,12 @@
   </si>
   <si>
     <t>instead of visited set, you can just change 1s to 0s</t>
+  </si>
+  <si>
+    <t>get area of largest island in rectangle grid</t>
+  </si>
+  <si>
+    <t>just same thing as prev problem but have number to keep track of size, adding 1 if 1 and then adding recursive call on neighbors, 0 if 0</t>
   </si>
 </sst>
 </file>
@@ -1693,15 +1699,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1858,12 +1864,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2031,17 +2037,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2230,7 +2236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2245,20 +2251,20 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2268,7 +2274,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2309,7 +2315,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2330,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2345,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2371,7 +2377,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2403,7 +2409,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2438,7 +2444,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2470,7 +2476,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2491,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2500,7 +2506,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2518,7 +2524,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2550,7 +2556,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2565,7 +2571,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2580,7 +2586,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2632,7 +2638,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2647,7 +2653,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2662,7 +2668,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2677,7 +2683,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2692,7 +2698,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2744,7 +2750,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2759,7 +2765,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2791,7 +2797,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2806,7 +2812,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2839,7 +2845,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2871,7 +2877,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2886,7 +2892,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2901,7 +2907,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2946,7 +2952,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -2976,7 +2982,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -2991,7 +2997,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3009,7 +3015,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3024,7 +3030,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3039,7 +3045,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3054,7 +3060,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3099,7 +3105,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3144,7 +3150,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3176,7 +3182,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3191,7 +3197,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3224,7 +3230,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3259,7 +3265,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3294,7 +3300,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3326,7 +3332,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3341,7 +3347,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3371,7 +3377,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3386,7 +3392,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3401,7 +3407,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3416,7 +3422,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3434,7 +3440,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3449,7 +3455,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3481,7 +3487,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3496,7 +3502,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3513,7 +3519,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3548,18 +3554,22 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3570,7 +3580,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3581,7 +3591,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3592,7 +3602,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3603,7 +3613,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3614,7 +3624,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3625,7 +3635,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3636,7 +3646,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3647,7 +3657,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3658,7 +3668,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3669,7 +3679,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3680,7 +3690,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3705,7 +3715,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3716,7 +3726,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3727,7 +3737,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3738,7 +3748,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3749,7 +3759,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3760,7 +3770,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3771,7 +3781,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3782,7 +3792,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3793,7 +3803,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3804,7 +3814,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3815,4312 +3825,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F0A6-7B38-457E-8B3A-6AA6A0CAC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84771D6C-EFF6-4F4E-B732-15880E80D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="385">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1187,6 +1187,15 @@
   </si>
   <si>
     <t>just same thing as prev problem but have number to keep track of size, adding 1 if 1 and then adding recursive call on neighbors, 0 if 0</t>
+  </si>
+  <si>
+    <t>just have dictionary going from old to cloned nodes, adding each neighbor using recursion, base cases of returning null or dictionary version</t>
+  </si>
+  <si>
+    <t>fill grid with shortest distance to treasure given walls in certain blocks</t>
+  </si>
+  <si>
+    <t>run dfs on each treasure and update neighbors until smaller value encountered</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2257,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,26 +3578,34 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>384</v>
+      </c>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84771D6C-EFF6-4F4E-B732-15880E80D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDFCF6-FEEB-4C27-9B81-065F5FB0E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="387">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1196,6 +1196,12 @@
   </si>
   <si>
     <t>run dfs on each treasure and update neighbors until smaller value encountered</t>
+  </si>
+  <si>
+    <t>rotting oranges infect neighboring oranges, how long does it take for all oranges to be infected, -1 if not possible</t>
+  </si>
+  <si>
+    <t>literally count clean oranges and get all locations of rotten, then go through queue and expand one step out each time, putting all valid back into queue, keep track of time separately as well</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2263,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,15 +3614,19 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDFCF6-FEEB-4C27-9B81-065F5FB0E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759DEA9-F5A9-4994-9C83-2F710D942F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="389">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1202,6 +1202,12 @@
   </si>
   <si>
     <t>literally count clean oranges and get all locations of rotten, then go through queue and expand one step out each time, putting all valid back into queue, keep track of time separately as well</t>
+  </si>
+  <si>
+    <t>go from edges and floodfill to see which are connected to edges, then replace everything with "X" if not connected to edge</t>
+  </si>
+  <si>
+    <t>change all surrounded islands of "O" to "X"</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2269,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,15 +3646,19 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759DEA9-F5A9-4994-9C83-2F710D942F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B1928-21B6-4099-98C3-5DC24E99A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -1720,15 +1720,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1885,12 +1885,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2058,17 +2058,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2257,7 +2257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2268,24 +2268,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3540,7 +3540,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3862,4312 +3862,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B1928-21B6-4099-98C3-5DC24E99A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84614FD7-F28F-4545-868F-D7EB13F927F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="391">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1208,6 +1208,12 @@
   </si>
   <si>
     <t>change all surrounded islands of "O" to "X"</t>
+  </si>
+  <si>
+    <t>return list of all positions that can flow downward to top or left edge and right or bottom edge, flowing allowed for adjacent values that are equal or lower in height than current</t>
+  </si>
+  <si>
+    <t>go from edges and floodfill to see which are connected to edges, then track pacific and atlantic individually, in the end loop through to see which spots reach both</t>
   </si>
 </sst>
 </file>
@@ -1720,15 +1726,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1885,12 +1891,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2058,17 +2064,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2257,7 +2263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2269,23 +2275,23 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B80" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2295,7 +2301,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2342,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2357,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2398,7 +2404,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2430,7 +2436,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2465,7 +2471,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2497,7 +2503,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2512,7 +2518,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2527,7 +2533,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2577,7 +2583,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2592,7 +2598,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2607,7 +2613,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2659,7 +2665,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2674,7 +2680,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2689,7 +2695,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2719,7 +2725,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2771,7 +2777,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2786,7 +2792,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2818,7 +2824,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2833,7 +2839,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2848,7 +2854,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2866,7 +2872,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2898,7 +2904,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2928,7 +2934,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2943,7 +2949,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2958,7 +2964,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2973,7 +2979,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -2988,7 +2994,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3051,7 +3057,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3096,7 +3102,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3111,7 +3117,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3126,7 +3132,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3141,7 +3147,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3156,7 +3162,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3171,7 +3177,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3203,7 +3209,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3218,7 +3224,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3251,7 +3257,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3286,7 +3292,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3321,7 +3327,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3353,7 +3359,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3383,7 +3389,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3398,7 +3404,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3413,7 +3419,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3428,7 +3434,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3443,7 +3449,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3461,7 +3467,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3476,7 +3482,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3508,7 +3514,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3523,7 +3529,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3540,7 +3546,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3555,7 +3561,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3590,7 +3596,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3605,7 +3611,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3620,7 +3626,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3635,18 +3641,22 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3661,7 +3671,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3672,7 +3682,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3683,7 +3693,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3705,7 +3715,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3716,7 +3726,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3727,7 +3737,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3741,7 +3751,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3752,7 +3762,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3763,7 +3773,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3774,7 +3784,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3785,7 +3795,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3796,7 +3806,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3807,7 +3817,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3818,7 +3828,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3829,7 +3839,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3840,7 +3850,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3851,7 +3861,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3862,4312 +3872,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84614FD7-F28F-4545-868F-D7EB13F927F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B5EC6A-8867-4592-8E03-29F492BB891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="394">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1214,6 +1214,15 @@
   </si>
   <si>
     <t>go from edges and floodfill to see which are connected to edges, then track pacific and atlantic individually, in the end loop through to see which spots reach both</t>
+  </si>
+  <si>
+    <t>given pairs of pre-reqs, figure out if all courses can be taken</t>
+  </si>
+  <si>
+    <t>create graph based on pre reqs, use topological sort to figure out if possible, aka track indegree/# of pre reqs for each course, then start all courses with no pre reqs, make all their children nodes -= 1 indegree and add them to queue if now all their pre-reqs are satisfied, continue until queue is empty and check if # of courses that were satisfied is equal to total num of courses</t>
+  </si>
+  <si>
+    <t>&lt;- Kahn's algorithm</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2283,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,16 +3680,22 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B5EC6A-8867-4592-8E03-29F492BB891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8BD16-9299-468B-A31C-EBA94BF8C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="396">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1223,6 +1223,12 @@
   </si>
   <si>
     <t>&lt;- Kahn's algorithm</t>
+  </si>
+  <si>
+    <t>same thing but return a valid order or empty list ^</t>
+  </si>
+  <si>
+    <t>same thing using Kahn's algorithm, instead of adding ret as counter add courses to ret as they are processed with indegree 0</t>
   </si>
 </sst>
 </file>
@@ -2283,8 +2289,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,15 +3703,19 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8BD16-9299-468B-A31C-EBA94BF8C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF564A-10B2-412F-A77E-EDDF19D5755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="397">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>same thing using Kahn's algorithm, instead of adding ret as counter add courses to ret as they are processed with indegree 0</t>
+  </si>
+  <si>
+    <t>could just loop through and dfs with visited or us UnionFind algorithm where you have a head node for each group and every time there's an edge, you subtract number of connected components by 1 if they are not already in the same group (shown when they share the same group head). Each node initially starts with themself as head</t>
   </si>
 </sst>
 </file>
@@ -1741,15 +1744,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1906,12 +1909,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2079,17 +2082,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2278,7 +2281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,24 +2292,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2316,7 +2319,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2357,7 +2360,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2372,7 +2375,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2390,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2486,7 +2489,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2598,7 +2601,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2695,7 +2698,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2710,7 +2713,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2725,7 +2728,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2740,7 +2743,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2792,7 +2795,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2807,7 +2810,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2839,7 +2842,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2854,7 +2857,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2887,7 +2890,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2994,7 +2997,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3072,7 +3075,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3087,7 +3090,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3132,7 +3135,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3224,7 +3227,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3239,7 +3242,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3272,7 +3275,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3307,7 +3310,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3342,7 +3345,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3374,7 +3377,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3389,7 +3392,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3419,7 +3422,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3434,7 +3437,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3464,7 +3467,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3482,7 +3485,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3529,7 +3532,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3544,7 +3547,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3561,7 +3564,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3576,7 +3579,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3611,7 +3614,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3626,7 +3629,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3641,7 +3644,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3656,7 +3659,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3671,7 +3674,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3686,7 +3689,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3718,7 +3721,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3729,18 +3732,22 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3751,7 +3758,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3762,7 +3769,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3776,7 +3783,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3787,7 +3794,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3798,7 +3805,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3809,7 +3816,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3820,7 +3827,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3842,7 +3849,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3853,7 +3860,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3864,7 +3871,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3875,7 +3882,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3886,7 +3893,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3897,4312 +3904,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhou\Documents\Eric\VSCode\LeetcodeGrind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF564A-10B2-412F-A77E-EDDF19D5755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A541F1-FBC0-454F-9EBE-BF52396E135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="399">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1232,6 +1232,12 @@
   </si>
   <si>
     <t>could just loop through and dfs with visited or us UnionFind algorithm where you have a head node for each group and every time there's an edge, you subtract number of connected components by 1 if they are not already in the same group (shown when they share the same group head). Each node initially starts with themself as head</t>
+  </si>
+  <si>
+    <t>given pairs of nodes as edges, determine if valid tree (acyclic and all one connected component)</t>
+  </si>
+  <si>
+    <t>dfs but tracking prev node, if visited seen again ignoring prev then there's a cycle, propogate dfs and boolean returns to neighbors, at the end check if visited has the same size as number of nodes total (n), also can start dfs from node 0 with nonexistent value as prev like -1</t>
   </si>
 </sst>
 </file>
@@ -1744,15 +1750,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1909,12 +1915,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2082,17 +2088,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2281,7 +2287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2292,24 +2298,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.1796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="82.26953125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>111</v>
       </c>
@@ -2319,7 +2325,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -2360,7 +2366,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2375,7 +2381,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2396,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2489,7 +2495,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2521,7 +2527,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2536,7 +2542,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2551,7 +2557,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2631,7 +2637,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
@@ -2683,7 +2689,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2698,7 +2704,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2728,7 +2734,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2743,7 +2749,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
@@ -2795,7 +2801,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2810,7 +2816,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -2842,7 +2848,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -2857,7 +2863,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -2872,7 +2878,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
@@ -2890,7 +2896,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -2922,7 +2928,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -2952,7 +2958,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -2967,7 +2973,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>192</v>
       </c>
@@ -2997,7 +3003,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -3012,7 +3018,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3027,7 +3033,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3042,7 +3048,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3060,7 +3066,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3075,7 +3081,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3090,7 +3096,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3105,7 +3111,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3120,7 +3126,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3135,7 +3141,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3165,7 +3171,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3180,7 +3186,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3227,7 +3233,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3242,7 +3248,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
@@ -3275,7 +3281,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3310,7 +3316,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3377,7 +3383,7 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3392,7 +3398,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3407,7 +3413,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3422,7 +3428,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3437,7 +3443,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3452,7 +3458,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3467,7 +3473,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>330</v>
       </c>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3500,7 +3506,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3532,7 +3538,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3547,7 +3553,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>336</v>
@@ -3564,7 +3570,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3579,7 +3585,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3614,7 +3620,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3629,7 +3635,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3644,7 +3650,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3659,7 +3665,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3674,7 +3680,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3689,7 +3695,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3721,18 +3727,22 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3747,7 +3757,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3758,7 +3768,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3769,7 +3779,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3783,7 +3793,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
@@ -3794,7 +3804,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3805,7 +3815,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3816,7 +3826,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3827,7 +3837,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3838,7 +3848,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3849,7 +3859,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3860,7 +3870,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3871,7 +3881,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3882,7 +3892,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3893,7 +3903,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3904,4312 +3914,4312 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A541F1-FBC0-454F-9EBE-BF52396E135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A67E10-B0AF-48CD-BC01-DB97B9FBD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="401">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>dfs but tracking prev node, if visited seen again ignoring prev then there's a cycle, propogate dfs and boolean returns to neighbors, at the end check if visited has the same size as number of nodes total (n), also can start dfs from node 0 with nonexistent value as prev like -1</t>
+  </si>
+  <si>
+    <t>find last edge that makes graph no longer acyclic while keeping graph connected</t>
+  </si>
+  <si>
+    <t>union find method, return edge where a and b are the same after calling find since that means they are already connected and there's therefore a loop</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2305,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,15 +3763,19 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A67E10-B0AF-48CD-BC01-DB97B9FBD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D32E7-ADC1-482E-8793-D135AB28975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="415">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1244,6 +1244,48 @@
   </si>
   <si>
     <t>union find method, return edge where a and b are the same after calling find since that means they are already connected and there's therefore a loop</t>
+  </si>
+  <si>
+    <t>go from start word to end word only going through words in word list only changing one letter at a time</t>
+  </si>
+  <si>
+    <t>first method is to construct graph using *ord w*rd wo*d wor* and doing BFS, better way is to check every possible other letter in each spot after converting word list into a set and removing when visited, even better is to do that while doing a double ended BFS, going on the end that has a smaller queue</t>
+  </si>
+  <si>
+    <t>2D DP</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Paths   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy And Sell Stock With Cooldown   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin Change II   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Sum   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleaving String   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Path In a Matrix   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinct Subsequences   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst Balloons   </t>
   </si>
 </sst>
 </file>
@@ -2304,8 +2346,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,15 +3820,19 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,7 +3871,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
@@ -3836,7 +3882,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
@@ -3847,7 +3893,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3858,7 +3904,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
@@ -3869,7 +3915,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
@@ -3880,7 +3926,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3891,7 +3937,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
@@ -3902,7 +3948,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
@@ -3913,7 +3959,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
@@ -3924,117 +3970,186 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D32E7-ADC1-482E-8793-D135AB28975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2D886-FDA3-4E06-8CDD-0217A9E5E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="417">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1286,6 +1286,12 @@
   </si>
   <si>
     <t xml:space="preserve">Burst Balloons   </t>
+  </si>
+  <si>
+    <t>number of ways to climb n stairs taking steps of size 1 or 2</t>
+  </si>
+  <si>
+    <t>make list len n + 1, make 0 and 1 both have 1 way, then each next step is one step down + 2 steps down, return last one</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2353,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3841,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>352</v>
       </c>
@@ -3845,8 +3851,12 @@
       <c r="C94" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2D886-FDA3-4E06-8CDD-0217A9E5E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84106E4D-F186-4508-905A-4DE2762D51B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="419">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <t>make list len n + 1, make 0 and 1 both have 1 way, then each next step is one step down + 2 steps down, return last one</t>
+  </si>
+  <si>
+    <t>given cost for stepping 1/2 stairs on each level, figure out cheapest way to get to top</t>
+  </si>
+  <si>
+    <t>make list len n + 1, make 0 and 1 have cost 0, check 2 below and 1 below plus their costs and take the minimum to be curr level</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2359,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,15 +3865,19 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84106E4D-F186-4508-905A-4DE2762D51B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E7889-8A32-4F0E-96EA-18367852B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="421">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1298,6 +1298,12 @@
   </si>
   <si>
     <t>make list len n + 1, make 0 and 1 have cost 0, check 2 below and 1 below plus their costs and take the minimum to be curr level</t>
+  </si>
+  <si>
+    <t>each house is given a value, you can't rob adjacent houses, return max profit possible</t>
+  </si>
+  <si>
+    <t>using given list of values, set second element to max of first element and itself, then future elements are all maximum of 2 houses ago (prev non-adjacent house) plus this house value or the previous house value (don't take every other since it's more profitable to wait extra turn). Remember edge case of list length 1</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2365,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,15 +3886,19 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E7889-8A32-4F0E-96EA-18367852B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B8852F-1DD0-4027-BC20-E5D116D877CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="423">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1303,7 +1303,13 @@
     <t>each house is given a value, you can't rob adjacent houses, return max profit possible</t>
   </si>
   <si>
-    <t>using given list of values, set second element to max of first element and itself, then future elements are all maximum of 2 houses ago (prev non-adjacent house) plus this house value or the previous house value (don't take every other since it's more profitable to wait extra turn). Remember edge case of list length 1</t>
+    <t>same thing but houses are in circle so first and last are adj</t>
+  </si>
+  <si>
+    <t>literally call house robber function on array without first element and array but without last element to simulate all possibilities, remember len 1 case</t>
+  </si>
+  <si>
+    <t>using given list of values, set second element to max of first element and itself, then future elements are all maximum of 2 houses ago (prev non-adjacent house) plus this house value or the previous house value (don't take every other since it's more profitable to wait extra turn). Remember edge case of list length 1. Also better to just use 2 or 3 variables to track than entire mem arr</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2371,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>355</v>
       </c>
@@ -3897,19 +3903,23 @@
         <v>419</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B8852F-1DD0-4027-BC20-E5D116D877CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A98CA69-440F-4EC1-95CE-F1F73690B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="425">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1310,6 +1310,12 @@
   </si>
   <si>
     <t>using given list of values, set second element to max of first element and itself, then future elements are all maximum of 2 houses ago (prev non-adjacent house) plus this house value or the previous house value (don't take every other since it's more profitable to wait extra turn). Remember edge case of list length 1. Also better to just use 2 or 3 variables to track than entire mem arr</t>
+  </si>
+  <si>
+    <t>find longest palindromic substring and return</t>
+  </si>
+  <si>
+    <t>keep track of maxlen and ret, loop through all middle indexes and propogate outwards with two pointer, updating maxlen and ret as needed, remember palindromes can be odd and even length so for each middle index you have to do 2 propogations outward</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2377,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,15 +3928,19 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A98CA69-440F-4EC1-95CE-F1F73690B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40570A20-9AAC-4F41-974E-C81B2CA7DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="427">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1316,6 +1316,12 @@
   </si>
   <si>
     <t>keep track of maxlen and ret, loop through all middle indexes and propogate outwards with two pointer, updating maxlen and ret as needed, remember palindromes can be odd and even length so for each middle index you have to do 2 propogations outward</t>
+  </si>
+  <si>
+    <t>count # of substrs that are palindromic</t>
+  </si>
+  <si>
+    <t>literally same thing as above but ret use as counter and increment for each odd and even length 2 pointer expansion and that's it</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2383,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,15 +3949,19 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40570A20-9AAC-4F41-974E-C81B2CA7DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E8B6B-8BE0-4C5E-ACFF-AC1A264DC798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="429">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1322,6 +1322,12 @@
   </si>
   <si>
     <t>literally same thing as above but ret use as counter and increment for each odd and even length 2 pointer expansion and that's it</t>
+  </si>
+  <si>
+    <t>count # of ways for string of ints to be decoded to alphabet assuming only 1 - 26 inclusive has mappings</t>
+  </si>
+  <si>
+    <t>initialize track array of len n + 1 with 0 and 1 index having value of 1, for loop from 1 to n, if the current value is 0, check if the previous is 1 or 2, if so track at current should be equal to track at 2 letters ago since 10/20 is only possible combo, otherwise return 0 cuz that's illegal, if not 0 then check if 2 numbers combined is allowed [11, 26], if yes, then track of curr should be the previous letter plus two letters ago since those are the 2 possibilities, otherwise it's just equal to the prev</t>
   </si>
 </sst>
 </file>
@@ -2382,8 +2388,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,15 +3970,19 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E8B6B-8BE0-4C5E-ACFF-AC1A264DC798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469905D6-F23C-479A-BF60-497BF304590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="431">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1328,6 +1328,12 @@
   </si>
   <si>
     <t>initialize track array of len n + 1 with 0 and 1 index having value of 1, for loop from 1 to n, if the current value is 0, check if the previous is 1 or 2, if so track at current should be equal to track at 2 letters ago since 10/20 is only possible combo, otherwise return 0 cuz that's illegal, if not 0 then check if 2 numbers combined is allowed [11, 26], if yes, then track of curr should be the previous letter plus two letters ago since those are the 2 possibilities, otherwise it's just equal to the prev</t>
+  </si>
+  <si>
+    <t>given list of coin values and target amount, return least number of coins to get to target, -1 if not possible</t>
+  </si>
+  <si>
+    <t>create dp array initialized to inf, loop through up to amount + 1, inner loop through all coin values, getting I - coin if that's geq 0 and adding 1, taking the min of that and the current value in the array for here</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2395,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,15 +3991,19 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469905D6-F23C-479A-BF60-497BF304590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D61B2-E022-401B-A699-17E366035BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="433">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1334,6 +1334,12 @@
   </si>
   <si>
     <t>create dp array initialized to inf, loop through up to amount + 1, inner loop through all coin values, getting I - coin if that's geq 0 and adding 1, taking the min of that and the current value in the array for here</t>
+  </si>
+  <si>
+    <t>return maximum product of a subarray</t>
+  </si>
+  <si>
+    <t>iterate through keeping track of currmax and currmin, updating it each time with all possibilities (currmax * n, currmin * n, n), update ret with currmax</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2401,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,15 +4012,19 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D61B2-E022-401B-A699-17E366035BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DD8D43-2F2F-4FAC-BE70-6A5FE43F1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="435">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1340,6 +1340,12 @@
   </si>
   <si>
     <t>iterate through keeping track of currmax and currmin, updating it each time with all possibilities (currmax * n, currmin * n, n), update ret with currmax</t>
+  </si>
+  <si>
+    <t>check if it's possible to make certain string given list of possible substrings</t>
+  </si>
+  <si>
+    <t>basically just use boolean array for dp, marking reacheable spots as True based on substring comparisons, optimal to look backwards rather than propogating forwards though, rmbr to check bounds</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2407,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,15 +4033,19 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DD8D43-2F2F-4FAC-BE70-6A5FE43F1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF20DD8-5BD7-4E4A-AE62-CFE30FFF0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="437">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1346,6 +1346,12 @@
   </si>
   <si>
     <t>basically just use boolean array for dp, marking reacheable spots as True based on substring comparisons, optimal to look backwards rather than propogating forwards though, rmbr to check bounds</t>
+  </si>
+  <si>
+    <t>return length of longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>basically create array of len n + 1 filled w -inf, then you keep tracking the minimum number for each possible length subsequence and update from there, like [0, 0, 1, 2, 3] would mean smallest is 0, second smallest is 1, then 2, and so on, using ret to track the last index in the sorted bunch</t>
   </si>
 </sst>
 </file>
@@ -2406,8 +2412,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,15 +4054,19 @@
       </c>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF20DD8-5BD7-4E4A-AE62-CFE30FFF0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E4DFD5-75AD-4B40-9C09-2CC2025B018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="440">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1352,6 +1352,15 @@
   </si>
   <si>
     <t>basically create array of len n + 1 filled w -inf, then you keep tracking the minimum number for each possible length subsequence and update from there, like [0, 0, 1, 2, 3] would mean smallest is 0, second smallest is 1, then 2, and so on, using ret to track the last index in the sorted bunch</t>
+  </si>
+  <si>
+    <t>there's a genius bitmap solution</t>
+  </si>
+  <si>
+    <t>return whether an array of integers could be split into 2 equal subsets</t>
+  </si>
+  <si>
+    <t>get sum and return false if odd, target is sum divided by 2, basically check all possible subsets to see if you can get to target (looping through set and all nums over and over and adding the sums if they are less than target)</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2422,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,16 +4078,22 @@
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E4DFD5-75AD-4B40-9C09-2CC2025B018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812E793-91C9-4912-A7C6-04CF24FD64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="442">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1361,6 +1361,12 @@
   </si>
   <si>
     <t>get sum and return false if odd, target is sum divided by 2, basically check all possible subsets to see if you can get to target (looping through set and all nums over and over and adding the sums if they are less than target)</t>
+  </si>
+  <si>
+    <t>find unique paths from 0, 0 to m, n moving down or right each step</t>
+  </si>
+  <si>
+    <t>make array of length n all initialized to 1, have nested for loop the first going from 1 to m, second going from 1 to n, insided nested for loop you have arr[i] += arr[i + 1] since going down is the same each time so you just have to add the ones coming from the left, and top row and left column is going to always just be all 1</t>
   </si>
 </sst>
 </file>
@@ -2421,8 +2427,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,7 +4101,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>403</v>
       </c>
@@ -4105,8 +4111,12 @@
       <c r="C106" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812E793-91C9-4912-A7C6-04CF24FD64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8E172-079D-48F6-9324-FA71E39E88B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="444">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1367,6 +1367,12 @@
   </si>
   <si>
     <t>make array of length n all initialized to 1, have nested for loop the first going from 1 to m, second going from 1 to n, insided nested for loop you have arr[i] += arr[i + 1] since going down is the same each time so you just have to add the ones coming from the left, and top row and left column is going to always just be all 1</t>
+  </si>
+  <si>
+    <t>find longest common subsequence in 2 strings</t>
+  </si>
+  <si>
+    <t>create 2d array that is n + 1 x m + 1, at each spot if the character for each of the words is the same, make that spot 1 + track[i - 1][j - 1] the diagonally up left spot since that's the last spot where there could have been a match that would still allow this one to happen, if no match, then current spot's value is the maximum between the spot above and the spot to the left since that's how we propagate the values down and those are the longest common subseq at each point in the string. Remember indexing differences between track and the strings</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2434,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4119,15 +4125,19 @@
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8E172-079D-48F6-9324-FA71E39E88B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8B4D0-5867-471C-A509-926F3F5770AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="446">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1373,6 +1373,12 @@
   </si>
   <si>
     <t>create 2d array that is n + 1 x m + 1, at each spot if the character for each of the words is the same, make that spot 1 + track[i - 1][j - 1] the diagonally up left spot since that's the last spot where there could have been a match that would still allow this one to happen, if no match, then current spot's value is the maximum between the spot above and the spot to the left since that's how we propagate the values down and those are the longest common subseq at each point in the string. Remember indexing differences between track and the strings</t>
+  </si>
+  <si>
+    <t>coin change but return total number of combinations of coins that would end up at target value</t>
+  </si>
+  <si>
+    <t>create tracking arr of length n + 1 where n is target amount, initialize arr[0] = 1, for each coin value, loop through and increase each valid index by index minus coin value, return end</t>
   </si>
 </sst>
 </file>
@@ -2433,8 +2439,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,15 +4157,19 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8B4D0-5867-471C-A509-926F3F5770AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA42FBEB-D313-4406-B4B2-2BEA6375C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="447">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1379,6 +1379,9 @@
   </si>
   <si>
     <t>create tracking arr of length n + 1 where n is target amount, initialize arr[0] = 1, for each coin value, loop through and increase each valid index by index minus coin value, return end</t>
+  </si>
+  <si>
+    <t>cooldown between sell and next buy (gap of 1 day), return optimal profit amount</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2443,7 @@
   <dimension ref="A1:G967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,14 +4149,16 @@
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA42FBEB-D313-4406-B4B2-2BEA6375C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C5930-BEF3-43A4-B64B-2C0D1E5FAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="448">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1382,6 +1382,9 @@
   </si>
   <si>
     <t>cooldown between sell and next buy (gap of 1 day), return optimal profit amount</t>
+  </si>
+  <si>
+    <t>basically you have to keep track of optimal profit at each time step ending in a buy + waits or ending in a sell + waits. For buy + wait, the new buy is the max between the previous buy and sell[i - 2] - price (whether it's more worth to buy and hold or sell and buy again), for sell + wait, the new sell is the max between the previous sell and buy and sell (whether's it's more worth to wait or buy again and sell again). Have to initialize buy[1] to -prices[0] to force buy first thing, this allows for the list to propogate properly and it does not act buy first thing necessarily cuz it could be more optimal to sell for 0 at start and buy later which overrides</t>
   </si>
 </sst>
 </file>
@@ -2442,8 +2445,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,7 +4152,7 @@
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>407</v>
       </c>
@@ -4159,7 +4162,9 @@
       <c r="D108" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C5930-BEF3-43A4-B64B-2C0D1E5FAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0395C8DD-15D8-439A-AFF3-84C65DF484EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="450">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1385,6 +1385,13 @@
   </si>
   <si>
     <t>basically you have to keep track of optimal profit at each time step ending in a buy + waits or ending in a sell + waits. For buy + wait, the new buy is the max between the previous buy and sell[i - 2] - price (whether it's more worth to buy and hold or sell and buy again), for sell + wait, the new sell is the max between the previous sell and buy and sell (whether's it's more worth to wait or buy again and sell again). Have to initialize buy[1] to -prices[0] to force buy first thing, this allows for the list to propogate properly and it does not act buy first thing necessarily cuz it could be more optimal to sell for 0 at start and buy later which overrides</t>
+  </si>
+  <si>
+    <t>given array of positive ints, figure out number of ways to assign positive and negatives to each to sum to a target sum</t>
+  </si>
+  <si>
+    <t>Problem is basically asking to find all possible subsets splits with positive and negative signs and we want sum(P) - sum(N) = target and we have sum(P) + sum(N) = total. Combining these gives 2 * sum(P) = total + target which becomes 2 * (sum(P) - target) = total - target which has to be even. Therefore, we also just need to get new target of (total - target) / 2 to find all possible subsets since total - target = sum(P) + sum(N) - sum(P) + sum(N) = 2 * sum(N). Now problem statement is just find all subsets that sum to (total - target) / 2
+To solve this, we first find the total and calculate the new target. Then, we do the standard way of checking how many ways to add to a target given an array of numbers, using a 2D matrix that is length of nums x new target + 1. Then we do a nested loop to calculate the number of ways to get to each number given the first i numbers in the sequence choosing to include or not include, similar to combination sum problem but 2D since you care about history.</t>
   </si>
 </sst>
 </file>
@@ -2445,8 +2452,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,15 +4189,19 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0395C8DD-15D8-439A-AFF3-84C65DF484EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C898DB-9BC5-4D95-A8EA-DBCC643C2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="454">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1392,6 +1392,18 @@
   <si>
     <t>Problem is basically asking to find all possible subsets splits with positive and negative signs and we want sum(P) - sum(N) = target and we have sum(P) + sum(N) = total. Combining these gives 2 * sum(P) = total + target which becomes 2 * (sum(P) - target) = total - target which has to be even. Therefore, we also just need to get new target of (total - target) / 2 to find all possible subsets since total - target = sum(P) + sum(N) - sum(P) + sum(N) = 2 * sum(N). Now problem statement is just find all subsets that sum to (total - target) / 2
 To solve this, we first find the total and calculate the new target. Then, we do the standard way of checking how many ways to add to a target given an array of numbers, using a 2D matrix that is length of nums x new target + 1. Then we do a nested loop to calculate the number of ways to get to each number given the first i numbers in the sequence choosing to include or not include, similar to combination sum problem but 2D since you care about history.</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack</t>
+  </si>
+  <si>
+    <t>Shortest Path</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>0/1 Knapsack</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1508,9 +1520,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1525,9 +1534,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1536,9 +1542,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1551,6 +1554,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,60 +2471,60 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ADB572-3F2B-41BB-A303-53CCEC27F096}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G967"/>
+  <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2577,7 +2598,7 @@
       <c r="D7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F7" s="3"/>
@@ -2632,7 +2653,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2712,7 +2733,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2826,7 +2847,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2938,7 +2959,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3033,7 +3054,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3143,16 +3164,16 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="3"/>
@@ -3203,7 +3224,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3420,23 +3441,23 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>286</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="17" t="s">
         <v>290</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3488,7 +3509,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3535,7 +3556,7 @@
       <c r="E67" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -3559,7 +3580,7 @@
       <c r="C69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>325</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -3628,7 +3649,7 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3707,22 +3728,22 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15" t="s">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
@@ -3740,7 +3761,7 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="17" t="s">
         <v>338</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3941,316 +3962,346 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
+        <v>452</v>
+      </c>
       <c r="B98" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
       <c r="B99" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
       <c r="B100" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
+        <v>452</v>
+      </c>
       <c r="B101" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="B102" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
       <c r="B103" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
       <c r="B104" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
       <c r="B105" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>403</v>
+        <v>436</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="B108" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="B109" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
       <c r="B110" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="B111" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
+        <v>453</v>
+      </c>
       <c r="B112" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
       <c r="B113" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
       <c r="B114" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
       <c r="B115" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>142</v>
@@ -4259,73 +4310,88 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
       <c r="B116" s="4" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+      <c r="B118" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -8524,6 +8590,16 @@
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>
+    </row>
+    <row r="968" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D968" s="3"/>
+      <c r="E968" s="3"/>
+      <c r="F968" s="3"/>
+    </row>
+    <row r="969" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D969" s="3"/>
+      <c r="E969" s="3"/>
+      <c r="F969" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C898DB-9BC5-4D95-A8EA-DBCC643C2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADF0A8-4A0D-4E8A-9740-8E64816759EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="480">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1404,6 +1404,84 @@
   </si>
   <si>
     <t>0/1 Knapsack</t>
+  </si>
+  <si>
+    <t>Advanced Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconstruct Itinerary   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost to Connect All Points   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Delay Time   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim In Rising Water   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien Dictionary   </t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>REMEMBER TO DO ADVANCED GRAPHS</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Subarray   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Game   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Game II   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Station   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand of Straights   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Triplets to Form Target Triplet   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition Labels   </t>
+  </si>
+  <si>
+    <t>Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Interval   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Overlapping Intervals   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Rooms   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Rooms II   </t>
+  </si>
+  <si>
+    <t>Minimum Interval to Include Each Query</t>
+  </si>
+  <si>
+    <t>given 2 small strings and a big string, check if you can create big string from interleaving small strings</t>
+  </si>
+  <si>
+    <t>Literally just recursion with memory, if left matches you increment left pointer and recurse, if right matches you do the same, and you use an or on boolean to see what happens, then you save to a vector thingy and see how everything goes</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
@@ -1466,6 +1543,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1473,13 +1559,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
       <color theme="2"/>
       <name val="Calibri"/>
@@ -1534,22 +1614,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1561,17 +1641,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2473,8 +2553,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2604,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2542,6 +2622,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2557,6 +2638,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2572,6 +2654,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2589,6 +2672,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2604,6 +2688,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2621,6 +2706,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2636,6 +2722,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2653,7 +2740,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2671,6 +2758,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2688,6 +2776,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2703,6 +2792,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2718,6 +2808,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2733,7 +2824,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2751,6 +2842,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2768,6 +2860,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2783,6 +2876,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2798,6 +2892,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2813,6 +2908,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2830,6 +2926,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2847,7 +2944,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2865,6 +2962,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2880,6 +2978,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -2895,6 +2994,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -2910,6 +3010,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -2925,6 +3026,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -2942,6 +3044,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -2959,7 +3062,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2977,6 +3080,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -2992,6 +3096,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -3009,6 +3114,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -3024,6 +3130,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -3039,6 +3146,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -3054,7 +3162,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3072,6 +3180,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -3089,6 +3198,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -3104,6 +3214,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -3119,6 +3230,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -3134,6 +3246,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -3149,6 +3262,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -3164,6 +3278,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="B43" s="6" t="s">
         <v>192</v>
       </c>
@@ -3179,6 +3294,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -3194,6 +3310,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3209,6 +3326,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3224,7 +3342,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>250</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3242,6 +3360,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3257,6 +3376,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3272,6 +3392,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3287,6 +3408,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3302,6 +3424,7 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3317,6 +3440,7 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3332,6 +3456,7 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3347,6 +3472,7 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3362,6 +3488,7 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3377,6 +3504,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3394,6 +3522,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3409,6 +3538,7 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3424,6 +3554,7 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3441,7 +3572,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="9" t="s">
         <v>265</v>
       </c>
@@ -3457,7 +3588,7 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>290</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3477,6 +3608,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3492,6 +3624,7 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3509,7 +3642,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>294</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3527,6 +3660,7 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3544,6 +3678,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3559,6 +3694,7 @@
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3574,6 +3710,7 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3589,6 +3726,7 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3604,6 +3742,7 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3619,6 +3758,7 @@
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3634,6 +3774,7 @@
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3649,7 +3790,7 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>330</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3667,6 +3808,7 @@
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3682,6 +3824,7 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3699,6 +3842,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3714,6 +3858,7 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3729,7 +3874,7 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="12" t="s">
         <v>336</v>
       </c>
@@ -3746,6 +3891,7 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3761,7 +3907,7 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3781,6 +3927,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3796,6 +3943,7 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3811,6 +3959,7 @@
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3826,6 +3975,7 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -3841,6 +3991,7 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -3856,6 +4007,7 @@
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -3871,6 +4023,7 @@
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -3888,6 +4041,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -3903,6 +4057,7 @@
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -3918,6 +4073,7 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -3933,6 +4089,7 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -3948,6 +4105,7 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -3963,515 +4121,643 @@
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C104" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="4" t="s">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
+      <c r="B105" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C105" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="4" t="s">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C107" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="4" t="s">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C109" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="4" t="s">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C110" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="4" t="s">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="18"/>
+      <c r="B111" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>451</v>
+      </c>
       <c r="B114" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="B120" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -8606,7 +8892,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C124 C126:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADF0A8-4A0D-4E8A-9740-8E64816759EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC798BB-0E10-4282-BD62-3B6FFBD6EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="481">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>Literally just recursion with memory, if left matches you increment left pointer and recurse, if right matches you do the same, and you use an or on boolean to see what happens, then you save to a vector thingy and see how everything goes</t>
+  </si>
+  <si>
+    <t>Again it's just recursion with memory, tracking length of increasing path ending in current spot and returning if track matrix is already not -1. In main function call dfs on all non -1 slots since not processed yet and return the maximum of the returns of those. In dfs, initialize starting ret to 1 since each block has length 1, then have 1 + max of the path going each of the 4 directions recursing outwards</t>
   </si>
 </sst>
 </file>
@@ -2553,8 +2556,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4499,7 +4502,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="18"/>
       <c r="B120" s="4" t="s">
         <v>411</v>
@@ -4507,8 +4510,12 @@
       <c r="C120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC798BB-0E10-4282-BD62-3B6FFBD6EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1873549-6F77-4BFC-9B79-7BA1FA540862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="483">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1485,6 +1485,12 @@
   </si>
   <si>
     <t>Again it's just recursion with memory, tracking length of increasing path ending in current spot and returning if track matrix is already not -1. In main function call dfs on all non -1 slots since not processed yet and return the maximum of the returns of those. In dfs, initialize starting ret to 1 since each block has length 1, then have 1 + max of the path going each of the 4 directions recursing outwards</t>
+  </si>
+  <si>
+    <t>find # of distinct subseqs in string s that are equal to string t</t>
+  </si>
+  <si>
+    <t>We make track matrix of size n + 1 by m + 1 where track[i][j] is # of ways to make t[:j] from subseqs of s[:i]. First, we initialize all of track[i][0] to 1 since there's always 1 way to make empty string. Then, we do a nested for loop. If there is a character match, we add cell above with cell diagonally top left (track[i + 1][j + 1] = track[i][j + 1] + track[i][j]) since top left is how many subseqs you can make to j w new char and above was how many subseqs there were originally w/o new char. If not match, we just copy above since again that's subseqs originally w/o new char at i.</t>
   </si>
 </sst>
 </file>
@@ -2556,8 +2562,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,7 +4524,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="18"/>
       <c r="B121" s="4" t="s">
         <v>412</v>
@@ -4526,8 +4532,12 @@
       <c r="C121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1873549-6F77-4BFC-9B79-7BA1FA540862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CD070-412E-493D-A07F-332C45AFCBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="486">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1491,6 +1491,15 @@
   </si>
   <si>
     <t>We make track matrix of size n + 1 by m + 1 where track[i][j] is # of ways to make t[:j] from subseqs of s[:i]. First, we initialize all of track[i][0] to 1 since there's always 1 way to make empty string. Then, we do a nested for loop. If there is a character match, we add cell above with cell diagonally top left (track[i + 1][j + 1] = track[i][j + 1] + track[i][j]) since top left is how many subseqs you can make to j w new char and above was how many subseqs there were originally w/o new char. If not match, we just copy above since again that's subseqs originally w/o new char at i.</t>
+  </si>
+  <si>
+    <t>Find number of operations necessary to convert one string to another (ops: insert, remove, change one letter)</t>
+  </si>
+  <si>
+    <t>We make track matrix of size n + 1 by m + 1 where track[i][j] is # of ops required to go from s1[:i] to s2[:j]. We have to initialize the 0th row and column to consecutive counting (0 - n and 0 - m) since that makes sense. Then you traverse through and update based on whether current letters are the same and the top left diagonal, above, and left slot values to determine which operation is optimal here.</t>
+  </si>
+  <si>
+    <t>Can technically fit into 2 n length arrays but pain</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1641,16 +1650,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1661,6 +1664,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2563,12 +2569,12 @@
   <dimension ref="A1:G969"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
@@ -2580,17 +2586,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2613,7 +2619,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2631,7 +2637,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2653,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2663,7 +2669,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2681,7 +2687,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>115</v>
       </c>
@@ -2697,7 +2703,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
@@ -2715,7 +2721,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2737,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>118</v>
       </c>
@@ -2749,7 +2755,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2767,7 +2773,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
@@ -2785,7 +2791,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2801,7 +2807,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2817,7 +2823,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
@@ -2833,7 +2839,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2851,7 +2857,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2869,7 +2875,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -2885,7 +2891,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
@@ -2901,7 +2907,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
@@ -2917,7 +2923,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
@@ -2935,7 +2941,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
@@ -2953,7 +2959,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2971,7 +2977,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
@@ -2987,7 +2993,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>
@@ -3019,7 +3025,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
@@ -3035,7 +3041,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>175</v>
       </c>
@@ -3053,7 +3059,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
@@ -3071,7 +3077,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3089,7 +3095,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
@@ -3105,7 +3111,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>179</v>
       </c>
@@ -3123,7 +3129,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
@@ -3139,7 +3145,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
@@ -3155,7 +3161,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
@@ -3171,7 +3177,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3189,7 +3195,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
@@ -3207,7 +3213,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
@@ -3223,7 +3229,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
@@ -3239,7 +3245,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
@@ -3255,7 +3261,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
@@ -3271,7 +3277,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
@@ -3287,7 +3293,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="6" t="s">
         <v>192</v>
       </c>
@@ -3303,7 +3309,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>193</v>
       </c>
@@ -3319,7 +3325,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>194</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
@@ -3351,7 +3357,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>250</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3369,7 +3375,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3385,7 +3391,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>253</v>
       </c>
@@ -3401,7 +3407,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>254</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>255</v>
       </c>
@@ -3433,7 +3439,7 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>256</v>
       </c>
@@ -3449,7 +3455,7 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="4" t="s">
         <v>257</v>
       </c>
@@ -3465,7 +3471,7 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
@@ -3481,7 +3487,7 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
         <v>259</v>
       </c>
@@ -3497,7 +3503,7 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>260</v>
       </c>
@@ -3513,7 +3519,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>261</v>
       </c>
@@ -3531,7 +3537,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
@@ -3547,7 +3553,7 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
@@ -3563,7 +3569,7 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>264</v>
       </c>
@@ -3581,7 +3587,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="9" t="s">
         <v>265</v>
       </c>
@@ -3597,7 +3603,7 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3617,7 +3623,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
         <v>292</v>
       </c>
@@ -3633,7 +3639,7 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="4" t="s">
         <v>293</v>
       </c>
@@ -3651,7 +3657,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3669,7 +3675,7 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="4" t="s">
         <v>296</v>
       </c>
@@ -3687,7 +3693,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="4" t="s">
         <v>297</v>
       </c>
@@ -3703,7 +3709,7 @@
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
@@ -3719,7 +3725,7 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
@@ -3751,7 +3757,7 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
@@ -3767,7 +3773,7 @@
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="4" t="s">
         <v>302</v>
       </c>
@@ -3783,7 +3789,7 @@
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="4" t="s">
         <v>303</v>
       </c>
@@ -3799,7 +3805,7 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3817,7 +3823,7 @@
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="4" t="s">
         <v>332</v>
       </c>
@@ -3833,7 +3839,7 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="4" t="s">
         <v>333</v>
       </c>
@@ -3851,7 +3857,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="4" t="s">
         <v>334</v>
       </c>
@@ -3867,7 +3873,7 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="4" t="s">
         <v>335</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="12" t="s">
         <v>336</v>
       </c>
@@ -3900,7 +3906,7 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="4" t="s">
         <v>337</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3936,7 +3942,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="4" t="s">
         <v>340</v>
       </c>
@@ -3952,7 +3958,7 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="4" t="s">
         <v>341</v>
       </c>
@@ -3968,7 +3974,7 @@
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="4" t="s">
         <v>342</v>
       </c>
@@ -3984,7 +3990,7 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="4" t="s">
         <v>343</v>
       </c>
@@ -4000,7 +4006,7 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
         <v>344</v>
       </c>
@@ -4016,7 +4022,7 @@
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="4" t="s">
         <v>345</v>
       </c>
@@ -4032,7 +4038,7 @@
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="4" t="s">
         <v>346</v>
       </c>
@@ -4050,7 +4056,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="4" t="s">
         <v>347</v>
       </c>
@@ -4066,7 +4072,7 @@
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="4" t="s">
         <v>348</v>
       </c>
@@ -4082,7 +4088,7 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="4" t="s">
         <v>349</v>
       </c>
@@ -4098,7 +4104,7 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="4" t="s">
         <v>350</v>
       </c>
@@ -4114,7 +4120,7 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="4" t="s">
         <v>351</v>
       </c>
@@ -4130,7 +4136,7 @@
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -4181,7 +4187,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>352</v>
       </c>
       <c r="D100" s="3"/>
@@ -4189,7 +4195,7 @@
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4207,7 +4213,7 @@
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -4225,7 +4231,7 @@
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -4243,7 +4249,7 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4261,7 +4267,7 @@
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
         <v>357</v>
       </c>
@@ -4277,7 +4283,7 @@
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
+      <c r="A106" s="5"/>
       <c r="B106" s="4" t="s">
         <v>358</v>
       </c>
@@ -4293,7 +4299,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -4311,7 +4317,7 @@
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -4329,7 +4335,7 @@
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="4" t="s">
         <v>361</v>
       </c>
@@ -4345,7 +4351,7 @@
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
+      <c r="A110" s="5"/>
       <c r="B110" s="4" t="s">
         <v>362</v>
       </c>
@@ -4361,7 +4367,7 @@
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>363</v>
       </c>
@@ -4377,7 +4383,7 @@
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -4397,7 +4403,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D113" s="3"/>
@@ -4405,7 +4411,7 @@
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -4441,7 +4447,7 @@
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
+      <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
         <v>407</v>
       </c>
@@ -4457,7 +4463,7 @@
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -4475,7 +4481,7 @@
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -4493,7 +4499,7 @@
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
         <v>410</v>
       </c>
@@ -4509,7 +4515,7 @@
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
+      <c r="A120" s="5"/>
       <c r="B120" s="4" t="s">
         <v>411</v>
       </c>
@@ -4525,7 +4531,7 @@
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="4" t="s">
         <v>412</v>
       </c>
@@ -4540,20 +4546,26 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
+    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
       <c r="B122" s="4" t="s">
         <v>413</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
+      <c r="A123" s="5"/>
       <c r="B123" s="4" t="s">
         <v>414</v>
       </c>
@@ -4565,7 +4577,7 @@
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="4" t="s">
         <v>404</v>
       </c>
@@ -4577,25 +4589,25 @@
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16" t="s">
+      <c r="C125" s="15"/>
+      <c r="D125" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="15" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="15" t="s">
         <v>462</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -4686,7 +4698,7 @@
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="15" t="s">
         <v>471</v>
       </c>
       <c r="B134" s="4" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CD070-412E-493D-A07F-332C45AFCBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45A91C-E703-431B-BC32-464F3E09C376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="4" r:id="rId3"/>
     <sheet name="Neetcode" sheetId="3" r:id="rId4"/>
+    <sheet name="CodeSignal" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="497">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1500,6 +1501,39 @@
   </si>
   <si>
     <t>Can technically fit into 2 n length arrays but pain</t>
+  </si>
+  <si>
+    <t>https://github.com/Leader-board/OA-and-Interviews/blob/main/Online%20Assessments.md#codesignal</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Spiral Matrix 2</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>Reshape Matrix</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>Image Overlap</t>
+  </si>
+  <si>
+    <t>Transpose Matrix</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1668,12 +1702,199 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2568,8 +2789,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8922,13 +9143,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:C124 C126:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Med">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Med">
       <formula>NOT(ISERROR(SEARCH("Med",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8938,4 +9159,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6933FBFC-44BD-4904-99DA-B0AF53F41F06}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Med">
+      <formula>NOT(ISERROR(SEARCH("Med",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="codesignal" xr:uid="{FDD3F645-9AE9-4B2C-9C20-391FDBD2E2E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45A91C-E703-431B-BC32-464F3E09C376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD4A33-2907-427C-AC46-BA681999A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="499">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Return array that is a clockwise spiral traveral of a 2D matrix</t>
+  </si>
+  <si>
+    <t>Track the 4 sides boundaries with 4 integers and do 4 loops going across top, down on the right, across bottom, up on the left, incrementing the bounds as necessary and making loops based on the bounds</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1709,6 +1715,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2799,8 +2811,8 @@
     <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="111.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
@@ -9166,14 +9178,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="25" customWidth="1"/>
+    <col min="5" max="5" width="109.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9197,20 +9210,20 @@
       <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>487</v>
       </c>
@@ -9219,6 +9232,12 @@
       </c>
       <c r="C3" t="s">
         <v>119</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD4A33-2907-427C-AC46-BA681999A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7415BA7-5812-4D99-801A-4E83B7F87D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="501">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1540,6 +1540,12 @@
   </si>
   <si>
     <t>Track the 4 sides boundaries with 4 integers and do 4 loops going across top, down on the right, across bottom, up on the left, incrementing the bounds as necessary and making loops based on the bounds</t>
+  </si>
+  <si>
+    <t>Fill in square matrix using a spiral pattern going from 1 to n^2</t>
+  </si>
+  <si>
+    <t>Same thing as spiral matrix but filling in instead of adding to list</t>
   </si>
 </sst>
 </file>
@@ -9178,7 +9184,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9246,6 +9252,12 @@
       </c>
       <c r="C4" t="s">
         <v>119</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7415BA7-5812-4D99-801A-4E83B7F87D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68963FB0-2101-427B-B758-F2858EF025FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="504">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1546,6 +1546,15 @@
   </si>
   <si>
     <t>Same thing as spiral matrix but filling in instead of adding to list</t>
+  </si>
+  <si>
+    <t>fancy solution using swaps and reverse</t>
+  </si>
+  <si>
+    <t>Rotate each cell in matrix 90 degrees clockwise</t>
+  </si>
+  <si>
+    <t>Keep track of ring and offset, loop through rings 0 to n // 2 and offset from 0 to n - 2 * r - 1, use a temp variable and figure out how to get the 4 correct slots based on ring and offset and shift the 4 around</t>
   </si>
 </sst>
 </file>
@@ -9184,7 +9193,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,12 +9269,21 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>490</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68963FB0-2101-427B-B758-F2858EF025FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49B8FF-9853-4073-BF9E-52E5E5A4D22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="516">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1555,13 +1555,49 @@
   </si>
   <si>
     <t>Keep track of ring and offset, loop through rings 0 to n // 2 and offset from 0 to n - 2 * r - 1, use a temp variable and figure out how to get the 4 correct slots based on ring and offset and shift the 4 around</t>
+  </si>
+  <si>
+    <t>Traverse matrix in alternating diagonals</t>
+  </si>
+  <si>
+    <t>Have things to track location and direction, change direction when you reach certain edges where you only increment one pointer, then you just keep traversing diagonal and adding to ret</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Pairs Divisible 60</t>
+  </si>
+  <si>
+    <t>Longest Palindrome Concat</t>
+  </si>
+  <si>
+    <t>Doubled Pair Arr</t>
+  </si>
+  <si>
+    <t>3Sum Multiplicity</t>
+  </si>
+  <si>
+    <t>Count Nice Subarrays</t>
+  </si>
+  <si>
+    <t>K-Diff Pairs in Array</t>
+  </si>
+  <si>
+    <t>Special adding spaces to make text stick to edges</t>
+  </si>
+  <si>
+    <t>Lots of math to figure out how to calculate spaces between each word and figuring out where to stop words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,6 +1675,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1661,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1735,6 +1785,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9190,15 +9251,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6933FBFC-44BD-4904-99DA-B0AF53F41F06}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="25" customWidth="1"/>
     <col min="5" max="5" width="109.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" style="25" customWidth="1"/>
@@ -9208,7 +9269,7 @@
       <c r="A1" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -9219,7 +9280,7 @@
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -9242,7 +9303,7 @@
       <c r="A3" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>488</v>
       </c>
       <c r="C3" t="s">
@@ -9256,7 +9317,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>489</v>
       </c>
       <c r="C4" t="s">
@@ -9270,7 +9331,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="28" t="s">
         <v>490</v>
       </c>
       <c r="C5" t="s">
@@ -9286,52 +9347,127 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>491</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
       </c>
+      <c r="D6" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="26" t="s">
         <v>112</v>
       </c>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="26" t="s">
         <v>112</v>
       </c>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="C9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="26" t="s">
         <v>112</v>
       </c>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="28" t="s">
         <v>496</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49B8FF-9853-4073-BF9E-52E5E5A4D22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59323049-A69C-41F3-8E71-04FA161B5D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="518">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1591,6 +1591,12 @@
   </si>
   <si>
     <t>Lots of math to figure out how to calculate spaces between each word and figuring out where to stop words</t>
+  </si>
+  <si>
+    <t>find len of longest consecutive sequence possible created from array</t>
+  </si>
+  <si>
+    <t>sort and count or convert to set and check n - 1 over and over and keep track of max</t>
   </si>
 </sst>
 </file>
@@ -2877,8 +2883,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A120" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9254,7 +9260,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,6 +9426,12 @@
       </c>
       <c r="C12" s="26" t="s">
         <v>119</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59323049-A69C-41F3-8E71-04FA161B5D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A994C12-0555-4A61-A7D9-1827B957F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="520">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1597,6 +1597,12 @@
   </si>
   <si>
     <t>sort and count or convert to set and check n - 1 over and over and keep track of max</t>
+  </si>
+  <si>
+    <t>count pairs that sum to number divisible by 60</t>
+  </si>
+  <si>
+    <t>get modulos and loop through counts</t>
   </si>
 </sst>
 </file>
@@ -9260,7 +9266,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9440,6 +9446,12 @@
       </c>
       <c r="C13" s="26" t="s">
         <v>119</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A994C12-0555-4A61-A7D9-1827B957F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AE0DB-C3A0-4EF6-81D3-18C00DF97E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="524">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1593,16 +1593,28 @@
     <t>Lots of math to figure out how to calculate spaces between each word and figuring out where to stop words</t>
   </si>
   <si>
-    <t>find len of longest consecutive sequence possible created from array</t>
-  </si>
-  <si>
-    <t>sort and count or convert to set and check n - 1 over and over and keep track of max</t>
-  </si>
-  <si>
-    <t>count pairs that sum to number divisible by 60</t>
-  </si>
-  <si>
-    <t>get modulos and loop through counts</t>
+    <t>Find len of longest palindrome you can form from list of 2 letter words</t>
+  </si>
+  <si>
+    <t>Count pairs that sum to number divisible by 60</t>
+  </si>
+  <si>
+    <t>Find len of longest consecutive sequence possible created from array</t>
+  </si>
+  <si>
+    <t>Sort and count or convert to set and check n - 1 over and over and keep track of max</t>
+  </si>
+  <si>
+    <t>Get modulos and loop through counts</t>
+  </si>
+  <si>
+    <t>Count the occurrence of each word, then loop through and check reverses (only check first half), if both letters are the same mid is a boolean to track if there's an odd one out, otherwise you floor division by 2 to get how many you can insert on each side, at the end you check if mid then you add 2 more to ret</t>
+  </si>
+  <si>
+    <t>Check if it's possible to pair all elements in array with its double/half</t>
+  </si>
+  <si>
+    <t>Use unordered_map, count all unique elements, sort elements by absolute value, traverse and subtract each one from it's double, return false if double doesn't exist or doesn't have enough, can stop early after processing half of the numbers (only count the small half)</t>
   </si>
 </sst>
 </file>
@@ -1867,6 +1879,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1917,26 +1939,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1962,6 +1964,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9243,13 +9255,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:C124 C126:C1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Med">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Med">
       <formula>NOT(ISERROR(SEARCH("Med",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9266,7 +9278,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,10 +9446,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9448,26 +9460,38 @@
         <v>119</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>509</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>510</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>119</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9499,25 +9523,25 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Med">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Med">
       <formula>NOT(ISERROR(SEARCH("Med",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Med"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Med"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AE0DB-C3A0-4EF6-81D3-18C00DF97E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6918BCA4-33D8-4D56-B196-9CBF7387B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="526">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1615,6 +1615,12 @@
   </si>
   <si>
     <t>Use unordered_map, count all unique elements, sort elements by absolute value, traverse and subtract each one from it's double, return false if double doesn't exist or doesn't have enough, can stop early after processing half of the numbers (only count the small half)</t>
+  </si>
+  <si>
+    <t>3 sum but numbers are repeated</t>
+  </si>
+  <si>
+    <t>Use unordered map to do counting, loop through all unique values and check 3 scenarios with value1, value2, value3 = target - value1 - value2. First, if value3 no exist, continue. 3 scenarios are v1 == v2 == v3 in which case we have the same element thrice, we just need to do track[v1] * (track[v1] - 1]) * (track[v1] - 2) / 6 to account for duplicates and still consider all possibilities. Scenario 2 is v1 == v2 != v3, where we would have track[v1] * (track[v1] - 1) / 2 * track[v3] for same reasons. Final scenario is v1 &lt; v2 &lt; v3, we need this specific condition to avoid double counting, then we increment ret as needed and do modulos and long to int conversion as necessary</t>
   </si>
 </sst>
 </file>
@@ -9278,7 +9284,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,12 +9500,18 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>511</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>119</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6918BCA4-33D8-4D56-B196-9CBF7387B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04BA46A-DEF1-48F3-A307-77246A10A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="528">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1621,6 +1621,12 @@
   </si>
   <si>
     <t>Use unordered map to do counting, loop through all unique values and check 3 scenarios with value1, value2, value3 = target - value1 - value2. First, if value3 no exist, continue. 3 scenarios are v1 == v2 == v3 in which case we have the same element thrice, we just need to do track[v1] * (track[v1] - 1]) * (track[v1] - 2) / 6 to account for duplicates and still consider all possibilities. Scenario 2 is v1 == v2 != v3, where we would have track[v1] * (track[v1] - 1) / 2 * track[v3] for same reasons. Final scenario is v1 &lt; v2 &lt; v3, we need this specific condition to avoid double counting, then we increment ret as needed and do modulos and long to int conversion as necessary</t>
+  </si>
+  <si>
+    <t>Given array of nums, count number of subarrays where there are exactly k odds</t>
+  </si>
+  <si>
+    <t>Loop through to get all indices of odds, then traverse using window and look at left buffer and right buffer and calculate accordingly. Another solution is to use prefix sum like method of tracking how many ways there are to create subarrays of each number of odd numbers, then figure out how many ways you can add and remove front portions to create exactly k (read comments in github code since hard to explain prefix sum solution)</t>
   </si>
 </sst>
 </file>
@@ -9284,7 +9290,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9514,15 +9520,21 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>512</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>513</v>
       </c>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04BA46A-DEF1-48F3-A307-77246A10A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571E47F-9708-404D-8D20-9A2E97179E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="530">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1627,6 +1627,12 @@
   </si>
   <si>
     <t>Loop through to get all indices of odds, then traverse using window and look at left buffer and right buffer and calculate accordingly. Another solution is to use prefix sum like method of tracking how many ways there are to create subarrays of each number of odd numbers, then figure out how many ways you can add and remove front portions to create exactly k (read comments in github code since hard to explain prefix sum solution)</t>
+  </si>
+  <si>
+    <t>Count number of pairs with difference of k</t>
+  </si>
+  <si>
+    <t>Same thing as longest consecutive sequence except check -k, unless target difference is 0 then you have to count numbers that occur more than once. Alternate solution is to sort and then use sliding window</t>
   </si>
 </sst>
 </file>
@@ -9534,12 +9540,18 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>513</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>119</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571E47F-9708-404D-8D20-9A2E97179E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7526594-000F-458C-B115-4C47710E06D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="532">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1633,6 +1633,12 @@
   </si>
   <si>
     <t>Same thing as longest consecutive sequence except check -k, unless target difference is 0 then you have to count numbers that occur more than once. Alternate solution is to sort and then use sliding window</t>
+  </si>
+  <si>
+    <t>Given array of balloon values and that popping a balloon gives you left neighbor * balloon * right neighbor points, determine max amount of points you can get, neighbors are = 1 if neighbors don't exist</t>
+  </si>
+  <si>
+    <t>The essence is you realize the subproblem is actually which balloon you pop last, since popping last you know what the left and right neighbors would be. This allows us to get an O(N^3) solution. To be smart, we realize we can use table dp if we do each subarray of each possible length increasingly, so all subarrays of length 1 first, then 2, and so on. This way, when we take the last pop and try to see the left and right side, we know those are shorter and are already in the table before. Then, given offset/length, we loop through all possible left starting indices and calculate right index from these 2. Then, we loop between left and right and try all possible last pop balloons, setting dp value to be the best.</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1812,149 +1818,36 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2002,16 +1895,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2919,8 +2802,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,14 +2820,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4915,7 +4798,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="4" t="s">
         <v>414</v>
@@ -4923,8 +4806,12 @@
       <c r="C123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -9295,46 +9182,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6933FBFC-44BD-4904-99DA-B0AF53F41F06}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" style="25" customWidth="1"/>
-    <col min="5" max="5" width="109.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="17" customWidth="1"/>
+    <col min="5" max="5" width="109.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -9342,215 +9229,215 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>488</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>489</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>490</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>491</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="17" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>496</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="17" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="17" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9558,26 +9445,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Med"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Med">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Med">
       <formula>NOT(ISERROR(SEARCH("Med",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Med"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7526594-000F-458C-B115-4C47710E06D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBC743-AC5C-4BF7-966C-2291DC84D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="534">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1639,6 +1639,12 @@
   </si>
   <si>
     <t>The essence is you realize the subproblem is actually which balloon you pop last, since popping last you know what the left and right neighbors would be. This allows us to get an O(N^3) solution. To be smart, we realize we can use table dp if we do each subarray of each possible length increasingly, so all subarrays of length 1 first, then 2, and so on. This way, when we take the last pop and try to see the left and right side, we know those are shorter and are already in the table before. Then, given offset/length, we loop through all possible left starting indices and calculate right index from these 2. Then, we loop between left and right and try all possible last pop balloons, setting dp value to be the best.</t>
+  </si>
+  <si>
+    <t>Match pattern strings with . wildcard and * for one or more repeat of previous char as well as standard alphabet, return boolean if string and pattern match</t>
+  </si>
+  <si>
+    <t>Same thing as edit distance basically, do casework looking at . vs * vs same character and check the 2 dimensional track array accordingly for each one, with track[i][j] meaning p[:j] matches s[:i]. Will need loop at the start to populate first row, could also do other way of including that in the actual program but that's more painful</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2809,7 @@
   <dimension ref="A1:G969"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,7 +4820,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="4" t="s">
         <v>404</v>
@@ -4822,8 +4828,12 @@
       <c r="C124" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBC743-AC5C-4BF7-966C-2291DC84D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8173D4F-337C-4485-B14D-32D64396B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="536">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1428,9 +1428,6 @@
     <t>Cheapest Flights Within K Stops</t>
   </si>
   <si>
-    <t>REMEMBER TO DO ADVANCED GRAPHS</t>
-  </si>
-  <si>
     <t>Greedy</t>
   </si>
   <si>
@@ -1645,6 +1642,15 @@
   </si>
   <si>
     <t>Same thing as edit distance basically, do casework looking at . vs * vs same character and check the 2 dimensional track array accordingly for each one, with track[i][j] meaning p[:j] matches s[:i]. Will need loop at the start to populate first row, could also do other way of including that in the actual program but that's more painful</t>
+  </si>
+  <si>
+    <t>Given list of departure and arrival tuples, determine the lexicographically smallest possible path given starting at JFK and every flight is used and valid path exists</t>
+  </si>
+  <si>
+    <t>first create hashmap to track all possible travel places using priority queue to keep them sorted, then you want to continue down every possible path until you reach end where you add to list, as this ensures the first thing added is the last place you can end up and then the second last and so on. Then reverse and return</t>
+  </si>
+  <si>
+    <t>DFS/backtracking works but too slow</t>
   </si>
 </sst>
 </file>
@@ -2806,10 +2812,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ADB572-3F2B-41BB-A303-53CCEC27F096}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G969"/>
+  <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,8 +2823,8 @@
     <col min="1" max="1" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="111.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="111.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="43.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
@@ -2845,10 +2851,10 @@
       <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -2926,7 +2932,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>115</v>
@@ -3030,7 +3036,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>139</v>
@@ -3062,7 +3068,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>141</v>
@@ -3078,7 +3084,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>153</v>
       </c>
@@ -3096,7 +3102,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>155</v>
@@ -3180,7 +3186,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>154</v>
@@ -3216,7 +3222,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>171</v>
@@ -3248,7 +3254,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>173</v>
@@ -3264,7 +3270,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>174</v>
@@ -3298,7 +3304,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>176</v>
@@ -3334,7 +3340,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>178</v>
@@ -3350,7 +3356,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>179</v>
@@ -3368,7 +3374,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>180</v>
@@ -3384,7 +3390,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>181</v>
@@ -3400,7 +3406,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>182</v>
@@ -3468,7 +3474,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>188</v>
@@ -3516,7 +3522,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>191</v>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>184</v>
@@ -3710,7 +3716,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>258</v>
@@ -3742,7 +3748,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>260</v>
@@ -3758,7 +3764,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>261</v>
@@ -3776,7 +3782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>262</v>
@@ -3792,7 +3798,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>263</v>
@@ -3808,7 +3814,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>264</v>
@@ -3842,7 +3848,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>290</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
         <v>292</v>
@@ -3878,7 +3884,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="4" t="s">
         <v>293</v>
@@ -3896,7 +3902,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>294</v>
       </c>
@@ -3922,7 +3928,7 @@
       <c r="C66" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>313</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -3932,7 +3938,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="4" t="s">
         <v>297</v>
@@ -3948,7 +3954,7 @@
       </c>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="4" t="s">
         <v>298</v>
@@ -3980,7 +3986,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="4" t="s">
         <v>300</v>
@@ -4012,7 +4018,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="4" t="s">
         <v>302</v>
@@ -4044,7 +4050,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>330</v>
       </c>
@@ -4145,7 +4151,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="4" t="s">
         <v>337</v>
@@ -4229,7 +4235,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="4" t="s">
         <v>343</v>
@@ -4277,7 +4283,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="4" t="s">
         <v>346</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="4" t="s">
         <v>348</v>
@@ -4327,7 +4333,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="4" t="s">
         <v>349</v>
@@ -4359,7 +4365,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="4" t="s">
         <v>351</v>
@@ -4375,7 +4381,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>454</v>
       </c>
@@ -4384,6 +4390,15 @@
       </c>
       <c r="C94" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4434,7 +4449,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>452</v>
       </c>
@@ -4470,7 +4485,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>452</v>
       </c>
@@ -4506,7 +4521,7 @@
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
         <v>357</v>
@@ -4538,7 +4553,7 @@
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>452</v>
       </c>
@@ -4556,7 +4571,7 @@
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>450</v>
       </c>
@@ -4590,7 +4605,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="4" t="s">
         <v>362</v>
@@ -4606,7 +4621,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>363</v>
@@ -4622,7 +4637,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>453</v>
       </c>
@@ -4650,7 +4665,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>451</v>
       </c>
@@ -4668,7 +4683,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>406</v>
       </c>
@@ -4686,7 +4701,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
         <v>407</v>
@@ -4702,7 +4717,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>450</v>
       </c>
@@ -4720,7 +4735,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>453</v>
       </c>
@@ -4738,7 +4753,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
         <v>410</v>
@@ -4747,14 +4762,14 @@
         <v>119</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="4" t="s">
         <v>411</v>
@@ -4766,11 +4781,11 @@
         <v>45</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="4" t="s">
         <v>412</v>
@@ -4779,14 +4794,14 @@
         <v>142</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="4" t="s">
         <v>413</v>
@@ -4795,13 +4810,13 @@
         <v>119</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -4813,10 +4828,10 @@
         <v>142</v>
       </c>
       <c r="D123" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="F123" s="3"/>
     </row>
@@ -4829,35 +4844,28 @@
         <v>142</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>461</v>
-      </c>
+      <c r="B125" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
-        <v>462</v>
-      </c>
       <c r="B126" s="4" t="s">
         <v>463</v>
       </c>
@@ -4935,8 +4943,11 @@
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>470</v>
+      </c>
       <c r="B133" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>119</v>
@@ -4946,9 +4957,6 @@
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>471</v>
-      </c>
       <c r="B134" s="4" t="s">
         <v>472</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>474</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4986,7 +4994,7 @@
         <v>475</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4997,19 +5005,13 @@
         <v>476</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -9158,18 +9160,13 @@
       <c r="D968" s="3"/>
       <c r="E968" s="3"/>
       <c r="F968" s="3"/>
-    </row>
-    <row r="969" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D969" s="3"/>
-      <c r="E969" s="3"/>
-      <c r="F969" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C124 C126:C1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
@@ -9206,7 +9203,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="29"/>
@@ -9240,69 +9237,69 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>488</v>
-      </c>
       <c r="C3" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>497</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>499</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>503</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>504</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>112</v>
@@ -9311,7 +9308,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>112</v>
@@ -9320,7 +9317,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>119</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>112</v>
@@ -9338,117 +9335,117 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>507</v>
-      </c>
       <c r="C12" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>518</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>522</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>524</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>528</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8173D4F-337C-4485-B14D-32D64396B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F804E9-0825-4E1F-8FD3-0D803ED4634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="538">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1651,6 +1651,12 @@
   </si>
   <si>
     <t>DFS/backtracking works but too slow</t>
+  </si>
+  <si>
+    <t>Min cost necessary to connect every point in a graph given list of point coordinates using Manhattan distance</t>
+  </si>
+  <si>
+    <t>Prim's algorithm, keep track of visited nodes and keep adding the shortest path from the connected group until everything is covered, use indices instead of x, y to make it easier to track nodes, can be done with a single vector if you are smart about how updating is done</t>
   </si>
 </sst>
 </file>
@@ -2815,7 +2821,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,12 +4407,18 @@
         <v>535</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F804E9-0825-4E1F-8FD3-0D803ED4634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD8A40-B35A-472D-B267-C0EAB3318CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="540">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1657,6 +1657,12 @@
   </si>
   <si>
     <t>Prim's algorithm, keep track of visited nodes and keep adding the shortest path from the connected group until everything is covered, use indices instead of x, y to make it easier to track nodes, can be done with a single vector if you are smart about how updating is done</t>
+  </si>
+  <si>
+    <t>Given a start node and a list of directed edges as well as weights telling you delay for that edge, find the maximum time for signal to get from start to all other nodes</t>
+  </si>
+  <si>
+    <t>Dijkstra's algorithm basically, just create graph representation using vector of vector of pairs (pairs tracking dest and weight), then you start at k and make priority queue, checking over and over, make sure when adding to priority queue you do current time + extra delay to account for past delays as well.</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2827,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,12 +4427,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD8A40-B35A-472D-B267-C0EAB3318CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7E842-10F1-4678-BA27-663A02D49E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="544">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1663,6 +1663,18 @@
   </si>
   <si>
     <t>Dijkstra's algorithm basically, just create graph representation using vector of vector of pairs (pairs tracking dest and weight), then you start at k and make priority queue, checking over and over, make sure when adding to priority queue you do current time + extra delay to account for past delays as well.</t>
+  </si>
+  <si>
+    <t>also can do binary search dfs solution</t>
+  </si>
+  <si>
+    <t>each tick, rain water adds a level of water, making water everywhere at t height. Determine minimum number of ticks you need to wait for you to go from (0, 0) to bottom right, able to go horizontally or vertically.</t>
+  </si>
+  <si>
+    <t>One method is to use priority queue to keep track of all possible neighbors and keep traversing cheapest until you get to the end. Also make sure to track visited and then just do floodfill as normal.</t>
+  </si>
+  <si>
+    <t>Given array of words sorted by new lexicographical ordering, return the letters in the words in the new alien lexicographical order</t>
   </si>
 </sst>
 </file>
@@ -2827,7 +2839,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,20 +4453,32 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7E842-10F1-4678-BA27-663A02D49E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD247AD-C94E-4C4B-A93C-277A7B6E109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="546">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1675,6 +1675,12 @@
   </si>
   <si>
     <t>Given array of words sorted by new lexicographical ordering, return the letters in the words in the new alien lexicographical order</t>
+  </si>
+  <si>
+    <t>cheapest path of flights assuming maximum of k stops</t>
+  </si>
+  <si>
+    <t>dijkstra's algorithm basically, just create graph representation using vector of vector of pairs or special tuple tracking price, node, and number of stops (taken or remaining). Then, you put stuff into priority queue by price and do smart pruning, skipping if u reach k stops or if value is larger than previous for that node with that number of stops used thus far (dp-like table to track min price for each node at certain step)</t>
   </si>
 </sst>
 </file>
@@ -4481,12 +4487,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD247AD-C94E-4C4B-A93C-277A7B6E109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0259356-2043-4E86-BFA5-83F99A18A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="547">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1681,6 +1681,9 @@
   </si>
   <si>
     <t>dijkstra's algorithm basically, just create graph representation using vector of vector of pairs or special tuple tracking price, node, and number of stops (taken or remaining). Then, you put stuff into priority queue by price and do smart pruning, skipping if u reach k stops or if value is larger than previous for that node with that number of stops used thus far (dp-like table to track min price for each node at certain step)</t>
+  </si>
+  <si>
+    <t>loop through consecutive words and find where they are distinct, adding the key letter pair as an edge to keep track of which letters should come after which. Then you do topological ordering of the graph, making sure to return "" if there is a loop and that every character is covered in case there are multiple cases (not fully connected graph)</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2847,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -4485,6 +4488,9 @@
       </c>
       <c r="D98" s="5" t="s">
         <v>543</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0259356-2043-4E86-BFA5-83F99A18A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D3377C-1B42-4386-8167-5007EB95A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="549">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1684,6 +1684,12 @@
   </si>
   <si>
     <t>loop through consecutive words and find where they are distinct, adding the key letter pair as an edge to keep track of which letters should come after which. Then you do topological ordering of the graph, making sure to return "" if there is a loop and that every character is covered in case there are multiple cases (not fully connected graph)</t>
+  </si>
+  <si>
+    <t>Maximum sum of a continuous subarray</t>
+  </si>
+  <si>
+    <t>Ret and curr, reset curr to 0 if negative, ret is max of ret and curr, initialize ret and curr to first and loop through</t>
   </si>
 </sst>
 </file>
@@ -2847,8 +2853,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,8 +4933,12 @@
       <c r="C125" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D3377C-1B42-4386-8167-5007EB95A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D680807-6118-464A-8C0F-89C19C27F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="552">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1690,6 +1690,16 @@
   </si>
   <si>
     <t>Ret and curr, reset curr to 0 if negative, ret is max of ret and curr, initialize ret and curr to first and loop through</t>
+  </si>
+  <si>
+    <t>Given array of maximum jumps from each spot, determine if it's possible to reach right from left</t>
+  </si>
+  <si>
+    <t>Method 1: Track currn for maximum you can travel at curr, updating it as max(itself--, curr) to get the max it can continue so far, keep going and see if you can reach end
+Method 2: Go backwards, updating goal whenever a square reaches past it to the square that can reach past it as the goal, since reaching there indicates you can reach goal from there</t>
+  </si>
+  <si>
+    <t>Same thing but return minimum number of jumps necessary given it's always possible</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2864,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,25 +4951,31 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D680807-6118-464A-8C0F-89C19C27F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B95985-8238-4318-B78F-8172599F7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="553">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1700,6 +1700,9 @@
   </si>
   <si>
     <t>Same thing but return minimum number of jumps necessary given it's always possible</t>
+  </si>
+  <si>
+    <t>Basically, you track the furthest you can go in each jump and iterate until the end. First jump, l = r = 0, second jump, l = r + 1, r = furthest of jumps between l and r. Then you loop and continue</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2867,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,7 +4979,9 @@
       <c r="D127" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>552</v>
+      </c>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B95985-8238-4318-B78F-8172599F7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F17508-4B1D-4E6B-9749-099AEC164BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="556">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1703,6 +1703,15 @@
   </si>
   <si>
     <t>Basically, you track the furthest you can go in each jump and iterate until the end. First jump, l = r = 0, second jump, l = r + 1, r = furthest of jumps between l and r. Then you loop and continue</t>
+  </si>
+  <si>
+    <t>Given 2 arrays, one of max amount of gas you can get at each station and the other the cost to get out of the station to the next one, return unique starting index that allows you to cycle through the stations, -1 if impossible</t>
+  </si>
+  <si>
+    <t>You can loop through 2 * n, tracking current index and current amount of gas remaining, if i != start and i % n == start then we finish and return. If curr is ever below current cost, then we set start to i + 1 and curr to gas[tank % n], otherwise we increment by gas[i+1 % n] and decrement by cost[i % n]. Increment i. Return -1 at the end since we didn't return earlier.</t>
+  </si>
+  <si>
+    <t>We can also abuse the fact we know there's a unique solution, checking that solution is possible and then we only need to cycle once</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2876,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,16 +4993,22 @@
       </c>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F17508-4B1D-4E6B-9749-099AEC164BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB161C-B1F9-4735-A2C4-158976A0567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="558">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1712,6 +1712,12 @@
   </si>
   <si>
     <t>We can also abuse the fact we know there's a unique solution, checking that solution is possible and then we only need to cycle once</t>
+  </si>
+  <si>
+    <t>Given list of cards and group size, determine if the cards can be made into groups of straights of size group size</t>
+  </si>
+  <si>
+    <t>Basically sort the cards and keep cycling to make sure the rest of the straight always exists, best way to do it in cpp is to use queue and track the index in the straight it is, pushing the next index as necessary and tracking how many were finished. Easier way is to use a map and keep taking smallest key (auto sorted) and having nested loops decrementing counts and deleting keys as necessary.</t>
   </si>
 </sst>
 </file>
@@ -2875,8 +2881,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,15 +5016,19 @@
         <v>555</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB161C-B1F9-4735-A2C4-158976A0567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE22DB-C0A7-4BC9-943A-66F4A555BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="560">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>Basically sort the cards and keep cycling to make sure the rest of the straight always exists, best way to do it in cpp is to use queue and track the index in the straight it is, pushing the next index as necessary and tracking how many were finished. Easier way is to use a map and keep taking smallest key (auto sorted) and having nested loops decrementing counts and deleting keys as necessary.</t>
+  </si>
+  <si>
+    <t>Given triplets can be merged by getting the max of each of their 3 values, determine if target triplet can be formed from a vector of triplets</t>
+  </si>
+  <si>
+    <t>Ignore triplets that have values larger than target in any of the 3 slots, otherwise track which of the 3 target are hit if ever, return true if all hit, return false at end</t>
   </si>
 </sst>
 </file>
@@ -2882,7 +2888,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,15 +5037,19 @@
       </c>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE22DB-C0A7-4BC9-943A-66F4A555BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48738FC-D1B4-49A8-9754-F8873AB15368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="562">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>Ignore triplets that have values larger than target in any of the 3 slots, otherwise track which of the 3 target are hit if ever, return true if all hit, return false at end</t>
+  </si>
+  <si>
+    <t>Split string into substrings such that each letter can only be in one individual substring, returning vector of integer of substring sizes (want as many as possible)</t>
+  </si>
+  <si>
+    <t>Track where the last occurrence of each letter is using array, loop through each index in string, keep track of maxLast which is the largest last index of the current substring thus far, if maxLast becomes less than current index i, push size to ret and reset size to 0. Update maxLast with current character and increment size. Remember to push one more time at end and return</t>
   </si>
 </sst>
 </file>
@@ -2887,8 +2893,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,15 +5058,19 @@
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48738FC-D1B4-49A8-9754-F8873AB15368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADFA7E-2B54-4676-B7D6-38319D74815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="564">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1730,6 +1730,12 @@
   </si>
   <si>
     <t>Track where the last occurrence of each letter is using array, loop through each index in string, keep track of maxLast which is the largest last index of the current substring thus far, if maxLast becomes less than current index i, push size to ret and reset size to 0. Update maxLast with current character and increment size. Remember to push one more time at end and return</t>
+  </si>
+  <si>
+    <t>Check if parenthesis string is valid with '(', ')', and '*' wildcard that can be left, right, or empty string</t>
+  </si>
+  <si>
+    <t>Loop through each character and track lmin, lmax for minimum number of left brackets unmatched and max number of unmatched left brackets. Increment both when '(', decrement both when ')', increment lmax decrement lmin when wildcard. If lmax is ever negative, return False since that means not possible to match all ')'. Force lmin to always be non-negative, return if lmin is equal to 0 at end, since that would mean no unmatched parens</t>
   </si>
 </sst>
 </file>
@@ -2894,7 +2900,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,15 +5079,19 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADFA7E-2B54-4676-B7D6-38319D74815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF2677-9D32-48E7-B8B7-F66EF898A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="566">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1736,6 +1736,12 @@
   </si>
   <si>
     <t>Loop through each character and track lmin, lmax for minimum number of left brackets unmatched and max number of unmatched left brackets. Increment both when '(', decrement both when ')', increment lmax decrement lmin when wildcard. If lmax is ever negative, return False since that means not possible to match all ')'. Force lmin to always be non-negative, return if lmin is equal to 0 at end, since that would mean no unmatched parens</t>
+  </si>
+  <si>
+    <t>Given sorted non-overlapping intervals, insert a new interval and get rid of overlaps (make it absorb all overlaps)</t>
+  </si>
+  <si>
+    <t>Keep index, while loop through all non-overlapping before it, use low and high and continue while overlapping, add {low, high} to ret after, finally loop until end to get rest of non-overlapping</t>
   </si>
 </sst>
 </file>
@@ -2899,8 +2905,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,7 +5100,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>470</v>
       </c>
@@ -5104,8 +5110,12 @@
       <c r="C133" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>565</v>
+      </c>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF2677-9D32-48E7-B8B7-F66EF898A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990B66-504A-462E-A889-2BB4BF1B8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="568">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1742,6 +1742,12 @@
   </si>
   <si>
     <t>Keep index, while loop through all non-overlapping before it, use low and high and continue while overlapping, add {low, high} to ret after, finally loop until end to get rest of non-overlapping</t>
+  </si>
+  <si>
+    <t>Given list of intervals, merge all overlapping intervals</t>
+  </si>
+  <si>
+    <t>Create return vector, sort intervals by starting index, then loop through each interval, merging while right bound is larger left bound of next and updating right bound to the max of the 2, continue until non overlapping, add and continue on the next one</t>
   </si>
 </sst>
 </file>
@@ -2906,7 +2912,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,15 +5124,19 @@
       </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990B66-504A-462E-A889-2BB4BF1B8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DD66F-D35D-4159-8D83-272AFEA0AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="570">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>Create return vector, sort intervals by starting index, then loop through each interval, merging while right bound is larger left bound of next and updating right bound to the max of the 2, continue until non overlapping, add and continue on the next one</t>
+  </si>
+  <si>
+    <t>Determine if interval meetings can all be attended without overlap</t>
+  </si>
+  <si>
+    <t>Sort by start and loop through checking each and the one before it, determining if there is overlap</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2918,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,15 +5156,19 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DD66F-D35D-4159-8D83-272AFEA0AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1866909-2507-4FFD-A00E-72897EA710E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="573">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1754,6 +1754,15 @@
   </si>
   <si>
     <t>Sort by start and loop through checking each and the one before it, determining if there is overlap</t>
+  </si>
+  <si>
+    <t>Count number of intervals need to remove to make non-overlapping</t>
+  </si>
+  <si>
+    <t>Sort by start and loop through, increasing ret every time there's overlap but instead of tracking furthest right, we take the minimum right bound since it's always more optimal to remove the interval that extends further.</t>
+  </si>
+  <si>
+    <t>Could also count non-overlapping and subtract from total n</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2926,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
@@ -5145,16 +5154,22 @@
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1866909-2507-4FFD-A00E-72897EA710E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A394582-75A4-4E12-9D93-EF77742322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="575">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1763,6 +1763,12 @@
   </si>
   <si>
     <t>Could also count non-overlapping and subtract from total n</t>
+  </si>
+  <si>
+    <t>Determine number of rooms needed to hold all meetings without any overlaps</t>
+  </si>
+  <si>
+    <t>Combine start and end and sort, tracking the current number of ongoing meetings and updating ret as needed going through them chronologically</t>
   </si>
 </sst>
 </file>
@@ -2926,8 +2932,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,15 +5192,19 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>574</v>
+      </c>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A394582-75A4-4E12-9D93-EF77742322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805DA11-A46B-43DC-8CD1-A8F70DCB9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="577">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1769,6 +1769,12 @@
   </si>
   <si>
     <t>Combine start and end and sort, tracking the current number of ongoing meetings and updating ret as needed going through them chronologically</t>
+  </si>
+  <si>
+    <t>Given bunch of intervals and list of queries, return list of sizes for the smallest size of an interval each query value is in, -1 for no intervals</t>
+  </si>
+  <si>
+    <t>Sort query and intervals by left bound, keeping track of query original index. Then, loop through query, adding each interval that is valid for that query into a min heap by (size, end) tuple. After adding all valid intervals for that query and incrementing j interval pointer with it, keep checking/popping min heap until end is valid for current query, taking the value and putting it into ret.</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2939,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,15 +5213,19 @@
       </c>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>576</v>
+      </c>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805DA11-A46B-43DC-8CD1-A8F70DCB9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5C280-0C09-42C4-BBFA-B0EEC1C63A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="599">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1775,13 +1775,79 @@
   </si>
   <si>
     <t>Sort query and intervals by left bound, keeping track of query original index. Then, loop through query, adding each interval that is valid for that query into a min heap by (size, end) tuple. After adding all valid intervals for that query and incrementing j interval pointer with it, keep checking/popping min heap until end is valid for current query, taking the value and putting it into ret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate Image   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Matrix Zeroes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Number   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus One   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pow(x, n)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply Strings   </t>
+  </si>
+  <si>
+    <t>Detect Squares</t>
+  </si>
+  <si>
+    <t>Math/Geometry</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Number   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of 1 Bits   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counting Bits   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Bits   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Two Integers   </t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Separate function for math function and using Floyd fast and slow algorithm to look for loops, true if fast is equal to 1 at end</t>
+  </si>
+  <si>
+    <t>Add 1 to multi-digit number represented using array</t>
+  </si>
+  <si>
+    <t>Loop from back, if not 9, add 1 and return. Otherwise set to 0 and loop continues on, insert 1 at the start at the end</t>
+  </si>
+  <si>
+    <t>Manually calculate raising x to power of n</t>
+  </si>
+  <si>
+    <t>Recursively call pow(x,  n / 2) * pow(x, n / 2) * pow(x, n % 2), do base cases for 0, 1, and -1 powers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1939,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1895,7 +1968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1977,6 +2050,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2386,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE336F-4AFE-4B2A-A1AE-548ED7725D47}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" activeCellId="1" sqref="B27 D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,8 +3017,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,112 +5307,230 @@
       </c>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="F142" s="30"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="B143" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>596</v>
+      </c>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="B144" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>598</v>
+      </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -9406,8 +9603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6933FBFC-44BD-4904-99DA-B0AF53F41F06}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5C280-0C09-42C4-BBFA-B0EEC1C63A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEB734E-F9FF-45E3-965E-A24B7544CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="601">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1841,6 +1841,12 @@
   </si>
   <si>
     <t>Recursively call pow(x,  n / 2) * pow(x, n / 2) * pow(x, n % 2), do base cases for 0, 1, and -1 powers.</t>
+  </si>
+  <si>
+    <t>Has to be done in-place, make rows and columns with zero all zeroes</t>
+  </si>
+  <si>
+    <t>Basically keep track of every column and row with zeros and then go through again making them all 0, can have O(1) space using first row and column to track instead, which also needs booleans to rack if first row and column need to be zeroed out done after doing the standard process</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +3024,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,15 +5348,19 @@
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>600</v>
+      </c>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEB734E-F9FF-45E3-965E-A24B7544CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1514E-3307-48EA-ADFA-0B4A8CC158ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="603">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1847,6 +1847,12 @@
   </si>
   <si>
     <t>Basically keep track of every column and row with zeros and then go through again making them all 0, can have O(1) space using first row and column to track instead, which also needs booleans to rack if first row and column need to be zeroed out done after doing the standard process</t>
+  </si>
+  <si>
+    <t>Manual multiplication of string integers, output string</t>
+  </si>
+  <si>
+    <t>Basically just do digit by digit multiplication using subtraction to get each digit value, combining it using vector, and then converting it back into a string by adding '0'</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3030,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5408,15 +5414,19 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>602</v>
+      </c>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1514E-3307-48EA-ADFA-0B4A8CC158ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C0DCB-EFD9-46C5-80C7-D49662C4B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="605">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1853,6 +1853,12 @@
   </si>
   <si>
     <t>Basically just do digit by digit multiplication using subtraction to get each digit value, combining it using vector, and then converting it back into a string by adding '0'</t>
+  </si>
+  <si>
+    <t>Create class that can add points, and query with a point where you return number of squares you can create using that point, allows for repeated points</t>
+  </si>
+  <si>
+    <t>Nested hashmap first by row, then by column, then you get count of point at (row, col). Add just increments track[row][col]++, query loops through all points in the row (skipping if same column), and checks above and below the distance from query to current point in row, if there is square, it multiples the multiplicities of each of the points in the square and adds to ret</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3036,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,15 +5435,19 @@
       </c>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C0DCB-EFD9-46C5-80C7-D49662C4B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB728A7-5B37-4A51-BE3B-6AA0615CAB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="616">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1859,6 +1859,39 @@
   </si>
   <si>
     <t>Nested hashmap first by row, then by column, then you get count of point at (row, col). Add just increments track[row][col]++, query loops through all points in the row (skipping if same column), and checks above and below the distance from query to current point in row, if there is square, it multiples the multiplicities of each of the points in the square and adds to ret</t>
+  </si>
+  <si>
+    <t>Given array of numbers where each number appears twice except 1, return that 1</t>
+  </si>
+  <si>
+    <t>Xor through everything, aggregation starts with 0, return</t>
+  </si>
+  <si>
+    <t>Count 1 bits in int</t>
+  </si>
+  <si>
+    <t>Ret += n &amp; 1, n shift right 1, loop while n is not 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return vector of  number of 1 bits for all numbers 0 - n </t>
+  </si>
+  <si>
+    <t>If curr &amp; 1, then we have ret[curr - 1] + 1 since before there had to be 0 there. Otherwise, we get ret[curr &gt;&gt; 1] since the last slot is zero so it's equal to previous number of all bits except lsb</t>
+  </si>
+  <si>
+    <t>Easiest way is to create ret = 0, keep shifting n right and using &amp; 1 to extract lsb, shift result left each time u add a new one</t>
+  </si>
+  <si>
+    <t>Can also do swaps, looping 0 - 16 and comparing bits and swapping</t>
+  </si>
+  <si>
+    <t>Given vector, find missing number from 0 - n</t>
+  </si>
+  <si>
+    <t>Can also do n(n-1)/2 and subtract each element in vector to find missing</t>
+  </si>
+  <si>
+    <t>xor through every number from 0 to n and xor through every element in the vector to end up with the missing number, basically manually creating the single number problem</t>
   </si>
 </sst>
 </file>
@@ -3035,8 +3068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,7 +5483,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>586</v>
       </c>
@@ -5460,8 +5493,12 @@
       <c r="C147" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,42 +5508,62 @@
       <c r="C148" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>608</v>
+      </c>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB728A7-5B37-4A51-BE3B-6AA0615CAB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9AC5A-0619-4BD5-8AEB-E04020BFCFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="618">
   <si>
     <t>Roman to Integer:</t>
   </si>
@@ -1892,6 +1892,12 @@
   </si>
   <si>
     <t>xor through every number from 0 to n and xor through every element in the vector to end up with the missing number, basically manually creating the single number problem</t>
+  </si>
+  <si>
+    <t>First you have a ^= b to get sum for everything except carries, then you have carry = a &amp; b which has all the possible carry bits, which you then have to shift by 1. Set b = carry &lt;&lt; 1. Loop while b is non-zero, continuing to calculate carry and a ^= b and b = carry &lt;&lt; 1.</t>
+  </si>
+  <si>
+    <t>Same thing as reverse bits except with /= 10 and + % 10 instead. Have to do a check every loop for if ret is larger than INT_MAX / 10 or less than INT_MIN / 10 in which case we return 0 (check done before the adding)</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3075,7 @@
   <dimension ref="A1:G968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,26 +5571,34 @@
         <v>614</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
         <v>593</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>617</v>
+      </c>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricS\Documents\VSCode Projects\LeetcodeGrind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9AC5A-0619-4BD5-8AEB-E04020BFCFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361EF583-7CA4-4164-81C3-A2B7828F5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02D29AA1-7085-42F6-B3D4-4C0365DA5453}"/>
   </bookViews>
@@ -2096,6 +2096,12 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2107,12 +2113,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2526,15 +2526,15 @@
       <selection activeCell="D27" activeCellId="1" sqref="B27 D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2691,12 +2691,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2864,17 +2864,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -3051,7 +3051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3063,7 +3063,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3074,34 +3074,34 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="81" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="111.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="111.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>109</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>36</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>114</v>
@@ -3192,7 +3192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>115</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>116</v>
@@ -3226,7 +3226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>117</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>118</v>
@@ -3260,7 +3260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>137</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>138</v>
@@ -3296,7 +3296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>139</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>140</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>141</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>153</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>155</v>
@@ -3380,7 +3380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>156</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>157</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>158</v>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>159</v>
@@ -3446,7 +3446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>154</v>
@@ -3464,7 +3464,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>169</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>171</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>172</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>173</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>174</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>175</v>
@@ -3564,7 +3564,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>176</v>
@@ -3582,7 +3582,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>168</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>178</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>179</v>
@@ -3634,7 +3634,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>180</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>181</v>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>182</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>183</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>186</v>
@@ -3718,7 +3718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>187</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>188</v>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>189</v>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>190</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>191</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6" t="s">
         <v>192</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>193</v>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>194</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>184</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>250</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>252</v>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>253</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>254</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>255</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>256</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="4" t="s">
         <v>257</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>258</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
         <v>259</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>260</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>261</v>
@@ -4042,7 +4042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>262</v>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>263</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>264</v>
@@ -4092,7 +4092,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="9" t="s">
         <v>265</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>290</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
         <v>292</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="4" t="s">
         <v>293</v>
@@ -4162,7 +4162,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>294</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="4" t="s">
         <v>296</v>
@@ -4198,7 +4198,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="4" t="s">
         <v>297</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="4" t="s">
         <v>298</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="4" t="s">
         <v>299</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="4" t="s">
         <v>300</v>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="4" t="s">
         <v>301</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="4" t="s">
         <v>302</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="4" t="s">
         <v>303</v>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>330</v>
       </c>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="4" t="s">
         <v>332</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="4" t="s">
         <v>333</v>
@@ -4362,7 +4362,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="4" t="s">
         <v>334</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="4" t="s">
         <v>335</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="12" t="s">
         <v>336</v>
@@ -4411,7 +4411,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="4" t="s">
         <v>337</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>338</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="4" t="s">
         <v>340</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="4" t="s">
         <v>341</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="4" t="s">
         <v>342</v>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="4" t="s">
         <v>343</v>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
         <v>344</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="4" t="s">
         <v>345</v>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="4" t="s">
         <v>346</v>
@@ -4561,7 +4561,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="4" t="s">
         <v>347</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="4" t="s">
         <v>348</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="4" t="s">
         <v>349</v>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="4" t="s">
         <v>350</v>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="4" t="s">
         <v>351</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>454</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>456</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>457</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>458</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>459</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>460</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>352</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>452</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>452</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>452</v>
       </c>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>452</v>
       </c>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
         <v>357</v>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="4" t="s">
         <v>358</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>452</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>450</v>
       </c>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="4" t="s">
         <v>361</v>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="4" t="s">
         <v>362</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>363</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>453</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>403</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>451</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>406</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
         <v>407</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>450</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>453</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
         <v>410</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="4" t="s">
         <v>411</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="4" t="s">
         <v>412</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="4" t="s">
         <v>413</v>
@@ -5112,7 +5112,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="4" t="s">
         <v>414</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="4" t="s">
         <v>404</v>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>461</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>463</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>464</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
         <v>465</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>466</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>467</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>468</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>469</v>
       </c>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>470</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>472</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>473</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>474</v>
       </c>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>475</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>476</v>
       </c>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
         <v>585</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>578</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>579</v>
       </c>
@@ -5414,22 +5414,22 @@
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E142" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="F142" s="30"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>581</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>582</v>
       </c>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>583</v>
       </c>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>584</v>
       </c>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>586</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>588</v>
       </c>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>589</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>590</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>591</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>592</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>593</v>
       </c>
@@ -5601,4077 +5601,4077 @@
       </c>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>
     </row>
-    <row r="968" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D968" s="3"/>
       <c r="E968" s="3"/>
       <c r="F968" s="3"/>
@@ -9708,26 +9708,26 @@
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="17" customWidth="1"/>
-    <col min="5" max="5" width="109.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="109.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>486</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>488</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>489</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>490</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>492</v>
       </c>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>493</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>494</v>
       </c>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>495</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>505</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>507</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>508</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>509</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>510</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>511</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>512</v>
       </c>
